--- a/Code/Results/Cases/Case_2_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_10/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.04089572991724</v>
+        <v>18.04089572991725</v>
       </c>
       <c r="C2">
-        <v>10.26409906066337</v>
+        <v>10.26409906066325</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.179555913136642</v>
+        <v>8.179555913136593</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>35.20810154675933</v>
+        <v>35.2081015467594</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>15.18749129125558</v>
+        <v>15.18749129125551</v>
       </c>
       <c r="K2">
-        <v>8.841359642112408</v>
+        <v>8.841359642112392</v>
       </c>
       <c r="L2">
         <v>13.64944083472951</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.73739936393641</v>
+        <v>16.73739936393642</v>
       </c>
       <c r="C3">
-        <v>9.599764677222328</v>
+        <v>9.59976467722222</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.907419216678317</v>
+        <v>7.90741921667831</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>33.57121859014735</v>
+        <v>33.57121859014739</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14.13016687141605</v>
+        <v>14.13016687141603</v>
       </c>
       <c r="K3">
-        <v>8.417052315242902</v>
+        <v>8.417052315242911</v>
       </c>
       <c r="L3">
-        <v>12.70635063142615</v>
+        <v>12.7063506314261</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.89754632175457</v>
+        <v>15.89754632175463</v>
       </c>
       <c r="C4">
-        <v>9.173558447765846</v>
+        <v>9.173558447765624</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.742152529193472</v>
+        <v>7.742152529193468</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>32.55734607843001</v>
+        <v>32.55734607843018</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13.44905861114363</v>
+        <v>13.44905861114361</v>
       </c>
       <c r="K4">
-        <v>8.154191890254921</v>
+        <v>8.154191890254952</v>
       </c>
       <c r="L4">
-        <v>12.09914515562973</v>
+        <v>12.09914515562976</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.54519154431456</v>
+        <v>15.54519154431448</v>
       </c>
       <c r="C5">
-        <v>8.995199717584857</v>
+        <v>8.995199717584955</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.67530385847279</v>
+        <v>7.675303858472626</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>32.14221446699368</v>
+        <v>32.14221446699373</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.16333095435182</v>
+        <v>13.16333095435178</v>
       </c>
       <c r="K5">
-        <v>8.046589680502294</v>
+        <v>8.046589680502201</v>
       </c>
       <c r="L5">
-        <v>11.8605261988576</v>
+        <v>11.86052619885758</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.4860679858047</v>
+        <v>15.4860679858048</v>
       </c>
       <c r="C6">
-        <v>8.965299096945532</v>
+        <v>8.965299096945371</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.664235097285007</v>
+        <v>7.664235097285081</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>32.07317188410139</v>
+        <v>32.0731718841017</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>13.11538854465587</v>
+        <v>13.11538854465588</v>
       </c>
       <c r="K6">
-        <v>8.028696611469815</v>
+        <v>8.028696611469824</v>
       </c>
       <c r="L6">
-        <v>11.83111824183047</v>
+        <v>11.83111824183044</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.89283548893272</v>
+        <v>15.89283548893271</v>
       </c>
       <c r="C7">
-        <v>9.171172059826354</v>
+        <v>9.171172059826302</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.741248907733583</v>
+        <v>7.741248907733575</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>32.55175506319842</v>
+        <v>32.55175506319855</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13.44523845613593</v>
+        <v>13.44523845613589</v>
       </c>
       <c r="K7">
-        <v>8.152742537911429</v>
+        <v>8.152742537911454</v>
       </c>
       <c r="L7">
-        <v>12.09574028647055</v>
+        <v>12.09574028647051</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.59953833247518</v>
+        <v>17.59953833247513</v>
       </c>
       <c r="C8">
-        <v>10.03878564887489</v>
+        <v>10.03878564887513</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.085365585361007</v>
+        <v>8.085365585360991</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>34.64565859664911</v>
+        <v>34.64565859664901</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>14.82945538070146</v>
+        <v>14.82945538070149</v>
       </c>
       <c r="K8">
-        <v>8.695596775741347</v>
+        <v>8.695596775741327</v>
       </c>
       <c r="L8">
-        <v>13.33002707046189</v>
+        <v>13.33002707046191</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.64172579339581</v>
+        <v>20.64172579339585</v>
       </c>
       <c r="C9">
-        <v>11.59916028302041</v>
+        <v>11.59916028302044</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.773395414100287</v>
+        <v>8.773395414100227</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
-        <v>38.67539740290263</v>
+        <v>38.67539740290236</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>17.29809987614108</v>
+        <v>17.29809987614106</v>
       </c>
       <c r="K9">
-        <v>9.738443556920293</v>
+        <v>9.738443556920306</v>
       </c>
       <c r="L9">
-        <v>15.53336321398384</v>
+        <v>15.5333632139839</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.70478302137876</v>
+        <v>22.70478302137873</v>
       </c>
       <c r="C10">
-        <v>12.66677673897257</v>
+        <v>12.66677673897252</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.286129402270635</v>
+        <v>9.286129402270664</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847222</v>
       </c>
       <c r="G10">
-        <v>41.5879076491339</v>
+        <v>41.58790764913389</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>18.97345008279945</v>
+        <v>18.97345008279943</v>
       </c>
       <c r="K10">
-        <v>10.64331450128358</v>
+        <v>10.64331450128359</v>
       </c>
       <c r="L10">
-        <v>17.02959940770612</v>
+        <v>17.02959940770611</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.60947828215793</v>
+        <v>23.60947828215807</v>
       </c>
       <c r="C11">
-        <v>13.13734403975395</v>
+        <v>13.13734403975407</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.521083211572551</v>
+        <v>9.521083211572565</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>42.90422748677274</v>
+        <v>42.90422748677295</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>19.70851580062224</v>
+        <v>19.70851580062237</v>
       </c>
       <c r="K11">
-        <v>11.06612595717504</v>
+        <v>11.06612595717506</v>
       </c>
       <c r="L11">
-        <v>17.68619895419219</v>
+        <v>17.68619895419228</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.9475392822219</v>
+        <v>23.94753928222175</v>
       </c>
       <c r="C12">
-        <v>13.31356364434809</v>
+        <v>13.31356364434826</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.610333264306609</v>
+        <v>9.610333264306572</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>43.40174459233035</v>
+        <v>43.40174459232995</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>19.98325813223045</v>
+        <v>19.98325813223035</v>
       </c>
       <c r="K12">
-        <v>11.22420066775319</v>
+        <v>11.22420066775315</v>
       </c>
       <c r="L12">
-        <v>17.9316222374394</v>
+        <v>17.93162223743934</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.87492736799926</v>
+        <v>23.87492736799938</v>
       </c>
       <c r="C13">
-        <v>13.27569591423222</v>
+        <v>13.27569591423203</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.591098555903299</v>
+        <v>9.59109855590329</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>43.29463139360731</v>
+        <v>43.29463139360744</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>19.92424318696561</v>
+        <v>19.92424318696567</v>
       </c>
       <c r="K13">
-        <v>11.19024417209618</v>
+        <v>11.19024417209617</v>
       </c>
       <c r="L13">
-        <v>17.87890480946374</v>
+        <v>17.87890480946379</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.63737943277942</v>
+        <v>23.63737943277939</v>
       </c>
       <c r="C14">
-        <v>13.15188005290766</v>
+        <v>13.15188005290749</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.528420032047581</v>
+        <v>9.528420032047494</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>42.94517532910497</v>
+        <v>42.94517532910503</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>19.73118964850233</v>
+        <v>19.73118964850226</v>
       </c>
       <c r="K14">
-        <v>11.07917064697346</v>
+        <v>11.0791706469734</v>
       </c>
       <c r="L14">
-        <v>17.70645304378213</v>
+        <v>17.7064530437821</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.49129550264274</v>
+        <v>23.49129550264275</v>
       </c>
       <c r="C15">
-        <v>13.07578857450199</v>
+        <v>13.07578857450215</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.490065168566842</v>
+        <v>9.490065168566876</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>38.96319309154517</v>
       </c>
       <c r="G15">
-        <v>42.73101118656372</v>
+        <v>42.73101118656385</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>19.61247747194595</v>
+        <v>19.61247747194602</v>
       </c>
       <c r="K15">
-        <v>11.01087502326123</v>
+        <v>11.01087502326124</v>
       </c>
       <c r="L15">
-        <v>17.60041016509969</v>
+        <v>17.60041016509972</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.64500637999393</v>
+        <v>22.645006379994</v>
       </c>
       <c r="C16">
-        <v>12.63573639386156</v>
+        <v>12.63573639386143</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.270811306676713</v>
+        <v>9.270811306676711</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>41.50173215251234</v>
+        <v>41.5017321525127</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>18.9248903934899</v>
+        <v>18.92489039348995</v>
       </c>
       <c r="K16">
         <v>10.61538885134864</v>
       </c>
       <c r="L16">
-        <v>16.98622509075951</v>
+        <v>16.98622509075956</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,10 +982,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.11740180336104</v>
+        <v>22.11740180336107</v>
       </c>
       <c r="C17">
-        <v>12.36204242180026</v>
+        <v>12.36204242180017</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -994,10 +994,10 @@
         <v>9.136760489635671</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>40.74557608421949</v>
+        <v>40.7455760842194</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>18.49633516163747</v>
+        <v>18.49633516163748</v>
       </c>
       <c r="K17">
-        <v>10.36896904365049</v>
+        <v>10.36896904365045</v>
       </c>
       <c r="L17">
-        <v>16.60344527044488</v>
+        <v>16.60344527044489</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.81073387637203</v>
+        <v>21.81073387637197</v>
       </c>
       <c r="C18">
-        <v>12.20318638584965</v>
+        <v>12.20318638584955</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.059815706816361</v>
+        <v>9.059815706816353</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>40.30982127693486</v>
+        <v>40.30982127693488</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>18.24727576262725</v>
+        <v>18.24727576262721</v>
       </c>
       <c r="K18">
-        <v>10.22578745272358</v>
+        <v>10.22578745272354</v>
       </c>
       <c r="L18">
-        <v>16.38100093390604</v>
+        <v>16.381000933906</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.70634170229369</v>
+        <v>21.70634170229365</v>
       </c>
       <c r="C19">
-        <v>12.14914858663612</v>
+        <v>12.14914858663579</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.033789952448505</v>
+        <v>9.033789952448503</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>36.15172494150063</v>
       </c>
       <c r="G19">
-        <v>40.16213211427019</v>
+        <v>40.16213211427014</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>18.16249992204686</v>
+        <v>18.16249992204672</v>
       </c>
       <c r="K19">
-        <v>10.17705547463619</v>
+        <v>10.1770554746361</v>
       </c>
       <c r="L19">
-        <v>16.30528676969839</v>
+        <v>16.30528676969832</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.17389551306801</v>
+        <v>22.17389551306805</v>
       </c>
       <c r="C20">
-        <v>12.39132475086296</v>
+        <v>12.39132475086292</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.151013936544976</v>
+        <v>9.151013936544938</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.891556977314</v>
       </c>
       <c r="G20">
-        <v>40.82615477313529</v>
+        <v>40.82615477313541</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>18.54221923457578</v>
+        <v>18.5422192345758</v>
       </c>
       <c r="K20">
-        <v>10.39534956156763</v>
+        <v>10.3953495615677</v>
       </c>
       <c r="L20">
-        <v>16.64442711283541</v>
+        <v>16.64442711283549</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.70727301519677</v>
+        <v>23.70727301519671</v>
       </c>
       <c r="C21">
-        <v>13.18829961851311</v>
+        <v>13.18829961851304</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.546822322204092</v>
+        <v>9.546822322204051</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>43.04784173041042</v>
+        <v>43.0478417304103</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>19.78798973395511</v>
+        <v>19.7879897339551</v>
       </c>
       <c r="K21">
-        <v>11.11184947688895</v>
+        <v>11.11184947688897</v>
       </c>
       <c r="L21">
-        <v>17.75719152179325</v>
+        <v>17.75719152179327</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.68322316689647</v>
+        <v>24.68322316689634</v>
       </c>
       <c r="C22">
-        <v>13.69777820416359</v>
+        <v>13.69777820416375</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.807157899620215</v>
+        <v>9.80715789962019</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>40.81974568026791</v>
       </c>
       <c r="G22">
-        <v>44.49456525699198</v>
+        <v>44.49456525699161</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>20.58128359692336</v>
+        <v>20.5812835969233</v>
       </c>
       <c r="K22">
-        <v>11.5683534503429</v>
+        <v>11.56835345034286</v>
       </c>
       <c r="L22">
-        <v>18.46583497104447</v>
+        <v>18.46583497104438</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.16461531627276</v>
+        <v>24.16461531627284</v>
       </c>
       <c r="C23">
-        <v>13.42682843285843</v>
+        <v>13.4268284328581</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.668044418760573</v>
+        <v>9.668044418760619</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>43.72277452956565</v>
+        <v>43.72277452956596</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>20.15969616798065</v>
+        <v>20.15969616798067</v>
       </c>
       <c r="K23">
-        <v>11.32572703881841</v>
+        <v>11.32572703881833</v>
       </c>
       <c r="L23">
-        <v>18.08923301934198</v>
+        <v>18.08923301934195</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.14836513799914</v>
+        <v>22.14836513799915</v>
       </c>
       <c r="C24">
-        <v>12.37809091431741</v>
+        <v>12.37809091431772</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.144569572798062</v>
+        <v>9.144569572798071</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>36.85121910575439</v>
       </c>
       <c r="G24">
         <v>40.78972837835214</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>18.52148340497666</v>
+        <v>18.52148340497668</v>
       </c>
       <c r="K24">
-        <v>10.38342764939145</v>
+        <v>10.38342764939148</v>
       </c>
       <c r="L24">
-        <v>16.62590665006104</v>
+        <v>16.62590665006106</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.85002712987952</v>
+        <v>19.85002712987959</v>
       </c>
       <c r="C25">
-        <v>11.19146752151009</v>
+        <v>11.19146752151015</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.585982424649179</v>
+        <v>8.585982424649226</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>37.59394858308902</v>
+        <v>37.59394858308897</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>16.65547198421456</v>
+        <v>16.65547198421461</v>
       </c>
       <c r="K25">
-        <v>9.45898167075481</v>
+        <v>9.45898167075482</v>
       </c>
       <c r="L25">
-        <v>14.95960237878263</v>
+        <v>14.95960237878262</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_10/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.04089572991725</v>
+        <v>18.04089572991724</v>
       </c>
       <c r="C2">
-        <v>10.26409906066325</v>
+        <v>10.26409906066337</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.179555913136593</v>
+        <v>8.179555913136642</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>35.2081015467594</v>
+        <v>35.20810154675933</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>15.18749129125551</v>
+        <v>15.18749129125558</v>
       </c>
       <c r="K2">
-        <v>8.841359642112392</v>
+        <v>8.841359642112408</v>
       </c>
       <c r="L2">
         <v>13.64944083472951</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.73739936393642</v>
+        <v>16.73739936393641</v>
       </c>
       <c r="C3">
-        <v>9.59976467722222</v>
+        <v>9.599764677222328</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.90741921667831</v>
+        <v>7.907419216678317</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>33.57121859014739</v>
+        <v>33.57121859014735</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14.13016687141603</v>
+        <v>14.13016687141605</v>
       </c>
       <c r="K3">
-        <v>8.417052315242911</v>
+        <v>8.417052315242902</v>
       </c>
       <c r="L3">
-        <v>12.7063506314261</v>
+        <v>12.70635063142615</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.89754632175463</v>
+        <v>15.89754632175457</v>
       </c>
       <c r="C4">
-        <v>9.173558447765624</v>
+        <v>9.173558447765846</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.742152529193468</v>
+        <v>7.742152529193472</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>32.55734607843018</v>
+        <v>32.55734607843001</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13.44905861114361</v>
+        <v>13.44905861114363</v>
       </c>
       <c r="K4">
-        <v>8.154191890254952</v>
+        <v>8.154191890254921</v>
       </c>
       <c r="L4">
-        <v>12.09914515562976</v>
+        <v>12.09914515562973</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.54519154431448</v>
+        <v>15.54519154431456</v>
       </c>
       <c r="C5">
-        <v>8.995199717584955</v>
+        <v>8.995199717584857</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.675303858472626</v>
+        <v>7.67530385847279</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>32.14221446699373</v>
+        <v>32.14221446699368</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.16333095435178</v>
+        <v>13.16333095435182</v>
       </c>
       <c r="K5">
-        <v>8.046589680502201</v>
+        <v>8.046589680502294</v>
       </c>
       <c r="L5">
-        <v>11.86052619885758</v>
+        <v>11.8605261988576</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.4860679858048</v>
+        <v>15.4860679858047</v>
       </c>
       <c r="C6">
-        <v>8.965299096945371</v>
+        <v>8.965299096945532</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.664235097285081</v>
+        <v>7.664235097285007</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>32.0731718841017</v>
+        <v>32.07317188410139</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>13.11538854465588</v>
+        <v>13.11538854465587</v>
       </c>
       <c r="K6">
-        <v>8.028696611469824</v>
+        <v>8.028696611469815</v>
       </c>
       <c r="L6">
-        <v>11.83111824183044</v>
+        <v>11.83111824183047</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.89283548893271</v>
+        <v>15.89283548893272</v>
       </c>
       <c r="C7">
-        <v>9.171172059826302</v>
+        <v>9.171172059826354</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.741248907733575</v>
+        <v>7.741248907733583</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>32.55175506319855</v>
+        <v>32.55175506319842</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13.44523845613589</v>
+        <v>13.44523845613593</v>
       </c>
       <c r="K7">
-        <v>8.152742537911454</v>
+        <v>8.152742537911429</v>
       </c>
       <c r="L7">
-        <v>12.09574028647051</v>
+        <v>12.09574028647055</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.59953833247513</v>
+        <v>17.59953833247518</v>
       </c>
       <c r="C8">
-        <v>10.03878564887513</v>
+        <v>10.03878564887489</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.085365585360991</v>
+        <v>8.085365585361007</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>34.64565859664901</v>
+        <v>34.64565859664911</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>14.82945538070149</v>
+        <v>14.82945538070146</v>
       </c>
       <c r="K8">
-        <v>8.695596775741327</v>
+        <v>8.695596775741347</v>
       </c>
       <c r="L8">
-        <v>13.33002707046191</v>
+        <v>13.33002707046189</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.64172579339585</v>
+        <v>20.64172579339581</v>
       </c>
       <c r="C9">
-        <v>11.59916028302044</v>
+        <v>11.59916028302041</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.773395414100227</v>
+        <v>8.773395414100287</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>38.67539740290236</v>
+        <v>38.67539740290263</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>17.29809987614106</v>
+        <v>17.29809987614108</v>
       </c>
       <c r="K9">
-        <v>9.738443556920306</v>
+        <v>9.738443556920293</v>
       </c>
       <c r="L9">
-        <v>15.5333632139839</v>
+        <v>15.53336321398384</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.70478302137873</v>
+        <v>22.70478302137876</v>
       </c>
       <c r="C10">
-        <v>12.66677673897252</v>
+        <v>12.66677673897257</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.286129402270664</v>
+        <v>9.286129402270635</v>
       </c>
       <c r="F10">
-        <v>37.72874519847222</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>41.58790764913389</v>
+        <v>41.5879076491339</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>18.97345008279943</v>
+        <v>18.97345008279945</v>
       </c>
       <c r="K10">
-        <v>10.64331450128359</v>
+        <v>10.64331450128358</v>
       </c>
       <c r="L10">
-        <v>17.02959940770611</v>
+        <v>17.02959940770612</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.60947828215807</v>
+        <v>23.60947828215793</v>
       </c>
       <c r="C11">
-        <v>13.13734403975407</v>
+        <v>13.13734403975395</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.521083211572565</v>
+        <v>9.521083211572551</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>42.90422748677295</v>
+        <v>42.90422748677274</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>19.70851580062237</v>
+        <v>19.70851580062224</v>
       </c>
       <c r="K11">
-        <v>11.06612595717506</v>
+        <v>11.06612595717504</v>
       </c>
       <c r="L11">
-        <v>17.68619895419228</v>
+        <v>17.68619895419219</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.94753928222175</v>
+        <v>23.9475392822219</v>
       </c>
       <c r="C12">
-        <v>13.31356364434826</v>
+        <v>13.31356364434809</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.610333264306572</v>
+        <v>9.610333264306609</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363785</v>
       </c>
       <c r="G12">
-        <v>43.40174459232995</v>
+        <v>43.40174459233035</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>19.98325813223035</v>
+        <v>19.98325813223045</v>
       </c>
       <c r="K12">
-        <v>11.22420066775315</v>
+        <v>11.22420066775319</v>
       </c>
       <c r="L12">
-        <v>17.93162223743934</v>
+        <v>17.9316222374394</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.87492736799938</v>
+        <v>23.87492736799926</v>
       </c>
       <c r="C13">
-        <v>13.27569591423203</v>
+        <v>13.27569591423222</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.59109855590329</v>
+        <v>9.591098555903299</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>43.29463139360744</v>
+        <v>43.29463139360731</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>19.92424318696567</v>
+        <v>19.92424318696561</v>
       </c>
       <c r="K13">
-        <v>11.19024417209617</v>
+        <v>11.19024417209618</v>
       </c>
       <c r="L13">
-        <v>17.87890480946379</v>
+        <v>17.87890480946374</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.63737943277939</v>
+        <v>23.63737943277942</v>
       </c>
       <c r="C14">
-        <v>13.15188005290749</v>
+        <v>13.15188005290766</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.528420032047494</v>
+        <v>9.528420032047581</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>42.94517532910503</v>
+        <v>42.94517532910497</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>19.73118964850226</v>
+        <v>19.73118964850233</v>
       </c>
       <c r="K14">
-        <v>11.0791706469734</v>
+        <v>11.07917064697346</v>
       </c>
       <c r="L14">
-        <v>17.7064530437821</v>
+        <v>17.70645304378213</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.49129550264275</v>
+        <v>23.49129550264274</v>
       </c>
       <c r="C15">
-        <v>13.07578857450215</v>
+        <v>13.07578857450199</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.490065168566876</v>
+        <v>9.490065168566842</v>
       </c>
       <c r="F15">
-        <v>38.96319309154517</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>42.73101118656385</v>
+        <v>42.73101118656372</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>19.61247747194602</v>
+        <v>19.61247747194595</v>
       </c>
       <c r="K15">
-        <v>11.01087502326124</v>
+        <v>11.01087502326123</v>
       </c>
       <c r="L15">
-        <v>17.60041016509972</v>
+        <v>17.60041016509969</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.645006379994</v>
+        <v>22.64500637999393</v>
       </c>
       <c r="C16">
-        <v>12.63573639386143</v>
+        <v>12.63573639386156</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.270811306676711</v>
+        <v>9.270811306676713</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>41.5017321525127</v>
+        <v>41.50173215251234</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>18.92489039348995</v>
+        <v>18.9248903934899</v>
       </c>
       <c r="K16">
         <v>10.61538885134864</v>
       </c>
       <c r="L16">
-        <v>16.98622509075956</v>
+        <v>16.98622509075951</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,10 +982,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.11740180336107</v>
+        <v>22.11740180336104</v>
       </c>
       <c r="C17">
-        <v>12.36204242180017</v>
+        <v>12.36204242180026</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -994,10 +994,10 @@
         <v>9.136760489635671</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>40.7455760842194</v>
+        <v>40.74557608421949</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>18.49633516163748</v>
+        <v>18.49633516163747</v>
       </c>
       <c r="K17">
-        <v>10.36896904365045</v>
+        <v>10.36896904365049</v>
       </c>
       <c r="L17">
-        <v>16.60344527044489</v>
+        <v>16.60344527044488</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.81073387637197</v>
+        <v>21.81073387637203</v>
       </c>
       <c r="C18">
-        <v>12.20318638584955</v>
+        <v>12.20318638584965</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.059815706816353</v>
+        <v>9.059815706816361</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>40.30982127693488</v>
+        <v>40.30982127693486</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>18.24727576262721</v>
+        <v>18.24727576262725</v>
       </c>
       <c r="K18">
-        <v>10.22578745272354</v>
+        <v>10.22578745272358</v>
       </c>
       <c r="L18">
-        <v>16.381000933906</v>
+        <v>16.38100093390604</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.70634170229365</v>
+        <v>21.70634170229369</v>
       </c>
       <c r="C19">
-        <v>12.14914858663579</v>
+        <v>12.14914858663612</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.033789952448503</v>
+        <v>9.033789952448505</v>
       </c>
       <c r="F19">
-        <v>36.15172494150063</v>
+        <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>40.16213211427014</v>
+        <v>40.16213211427019</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>18.16249992204672</v>
+        <v>18.16249992204686</v>
       </c>
       <c r="K19">
-        <v>10.1770554746361</v>
+        <v>10.17705547463619</v>
       </c>
       <c r="L19">
-        <v>16.30528676969832</v>
+        <v>16.30528676969839</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.17389551306805</v>
+        <v>22.17389551306801</v>
       </c>
       <c r="C20">
-        <v>12.39132475086292</v>
+        <v>12.39132475086296</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.151013936544938</v>
+        <v>9.151013936544976</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>40.82615477313541</v>
+        <v>40.82615477313529</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>18.5422192345758</v>
+        <v>18.54221923457578</v>
       </c>
       <c r="K20">
-        <v>10.3953495615677</v>
+        <v>10.39534956156763</v>
       </c>
       <c r="L20">
-        <v>16.64442711283549</v>
+        <v>16.64442711283541</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.70727301519671</v>
+        <v>23.70727301519677</v>
       </c>
       <c r="C21">
-        <v>13.18829961851304</v>
+        <v>13.18829961851311</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.546822322204051</v>
+        <v>9.546822322204092</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>43.0478417304103</v>
+        <v>43.04784173041042</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>19.7879897339551</v>
+        <v>19.78798973395511</v>
       </c>
       <c r="K21">
-        <v>11.11184947688897</v>
+        <v>11.11184947688895</v>
       </c>
       <c r="L21">
-        <v>17.75719152179327</v>
+        <v>17.75719152179325</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.68322316689634</v>
+        <v>24.68322316689647</v>
       </c>
       <c r="C22">
-        <v>13.69777820416375</v>
+        <v>13.69777820416359</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.80715789962019</v>
+        <v>9.807157899620215</v>
       </c>
       <c r="F22">
-        <v>40.81974568026791</v>
+        <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>44.49456525699161</v>
+        <v>44.49456525699198</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>20.5812835969233</v>
+        <v>20.58128359692336</v>
       </c>
       <c r="K22">
-        <v>11.56835345034286</v>
+        <v>11.5683534503429</v>
       </c>
       <c r="L22">
-        <v>18.46583497104438</v>
+        <v>18.46583497104447</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.16461531627284</v>
+        <v>24.16461531627276</v>
       </c>
       <c r="C23">
-        <v>13.4268284328581</v>
+        <v>13.42682843285843</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.668044418760619</v>
+        <v>9.668044418760573</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>43.72277452956596</v>
+        <v>43.72277452956565</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>20.15969616798067</v>
+        <v>20.15969616798065</v>
       </c>
       <c r="K23">
-        <v>11.32572703881833</v>
+        <v>11.32572703881841</v>
       </c>
       <c r="L23">
-        <v>18.08923301934195</v>
+        <v>18.08923301934198</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.14836513799915</v>
+        <v>22.14836513799914</v>
       </c>
       <c r="C24">
-        <v>12.37809091431772</v>
+        <v>12.37809091431741</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.144569572798071</v>
+        <v>9.144569572798062</v>
       </c>
       <c r="F24">
-        <v>36.85121910575439</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
         <v>40.78972837835214</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>18.52148340497668</v>
+        <v>18.52148340497666</v>
       </c>
       <c r="K24">
-        <v>10.38342764939148</v>
+        <v>10.38342764939145</v>
       </c>
       <c r="L24">
-        <v>16.62590665006106</v>
+        <v>16.62590665006104</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.85002712987959</v>
+        <v>19.85002712987952</v>
       </c>
       <c r="C25">
-        <v>11.19146752151015</v>
+        <v>11.19146752151009</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.585982424649226</v>
+        <v>8.585982424649179</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>37.59394858308897</v>
+        <v>37.59394858308902</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>16.65547198421461</v>
+        <v>16.65547198421456</v>
       </c>
       <c r="K25">
-        <v>9.45898167075482</v>
+        <v>9.45898167075481</v>
       </c>
       <c r="L25">
-        <v>14.95960237878262</v>
+        <v>14.95960237878263</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.04089572991724</v>
+        <v>18.04035725799287</v>
       </c>
       <c r="C2">
-        <v>10.26409906066337</v>
+        <v>10.26322145216216</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.179555913136642</v>
+        <v>8.179181954961267</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>35.20810154675933</v>
+        <v>33.82014026250416</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>35.20894225103082</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>15.18749129125558</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>8.841359642112408</v>
+        <v>15.18679540599783</v>
       </c>
       <c r="L2">
-        <v>13.64944083472951</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>8.841319289245902</v>
+      </c>
+      <c r="M2">
+        <v>13.64906001206707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.73739936393641</v>
+        <v>16.73714048714289</v>
       </c>
       <c r="C3">
-        <v>9.599764677222328</v>
+        <v>9.599313268157534</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.907419216678317</v>
+        <v>7.907217767281741</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>33.57121859014735</v>
+        <v>31.97768784214663</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>33.57401700433791</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14.13016687141605</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>8.417052315242902</v>
+        <v>14.12981636783133</v>
       </c>
       <c r="L3">
-        <v>12.70635063142615</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>8.417037054417388</v>
+      </c>
+      <c r="M3">
+        <v>12.70616053977379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.89754632175457</v>
+        <v>15.89744499033136</v>
       </c>
       <c r="C4">
-        <v>9.173558447765846</v>
+        <v>9.173372902630403</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.742152529193472</v>
+        <v>7.742067394422572</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>32.55734607843001</v>
+        <v>30.82496429616865</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>32.56151472460173</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13.44905861114363</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>8.154191890254921</v>
+        <v>13.44891657394828</v>
       </c>
       <c r="L4">
-        <v>12.09914515562973</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>8.154187057479167</v>
+      </c>
+      <c r="M4">
+        <v>12.09906856095319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.54519154431456</v>
+        <v>15.54515112489433</v>
       </c>
       <c r="C5">
-        <v>8.995199717584857</v>
+        <v>8.995124063254281</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.67530385847279</v>
+        <v>7.675268758290575</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>32.14221446699368</v>
+        <v>30.35008388677666</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>32.14698438126216</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.16333095435182</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>8.046589680502294</v>
+        <v>13.16327339349567</v>
       </c>
       <c r="L5">
-        <v>11.8605261988576</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>8.04658795415385</v>
+      </c>
+      <c r="M5">
+        <v>11.8605439914684</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.4860679858047</v>
+        <v>15.48603748844383</v>
       </c>
       <c r="C6">
-        <v>8.965299096945532</v>
+        <v>8.965241798064703</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.664235097285007</v>
+        <v>7.664208464599021</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>32.07317188410139</v>
+        <v>30.27092969059629</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>32.07804424111275</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>13.11538854465587</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>8.028696611469815</v>
+        <v>13.11534499454055</v>
       </c>
       <c r="L6">
-        <v>11.83111824183047</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>8.028695334890349</v>
+      </c>
+      <c r="M6">
+        <v>11.83113185761856</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.89283548893272</v>
+        <v>15.89273499201169</v>
       </c>
       <c r="C7">
-        <v>9.171172059826354</v>
+        <v>9.170987989785049</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.741248907733583</v>
+        <v>7.74116443706665</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>32.55175506319842</v>
+        <v>30.81858027281137</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>32.55593164403219</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13.44523845613593</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>8.152742537911429</v>
+        <v>13.44509755958873</v>
       </c>
       <c r="L7">
-        <v>12.09574028647055</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>8.152737751522162</v>
+      </c>
+      <c r="M7">
+        <v>12.09566430930375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.59953833247518</v>
+        <v>17.59909937838355</v>
       </c>
       <c r="C8">
-        <v>10.03878564887489</v>
+        <v>10.03805442896958</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.085365585361007</v>
+        <v>8.085048972665474</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>34.64565859664911</v>
+        <v>33.18943663378091</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>34.64713984293554</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>14.82945538070146</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>8.695596775741347</v>
+        <v>14.82887959578449</v>
       </c>
       <c r="L8">
-        <v>13.33002707046189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>8.695566177077838</v>
+      </c>
+      <c r="M8">
+        <v>13.32971293936872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.64172579339581</v>
+        <v>20.64049507225329</v>
       </c>
       <c r="C9">
-        <v>11.59916028302041</v>
+        <v>11.59736625831658</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.773395414100287</v>
+        <v>8.772703596523696</v>
       </c>
       <c r="F9">
         <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>38.67539740290263</v>
+        <v>37.6627940549137</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>38.67288993155302</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>17.29809987614108</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>9.738443556920293</v>
+        <v>17.29662183661085</v>
       </c>
       <c r="L9">
-        <v>15.53336321398384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>9.738317175202885</v>
+      </c>
+      <c r="M9">
+        <v>15.53253929132958</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.70478302137876</v>
+        <v>22.70286351093831</v>
       </c>
       <c r="C10">
-        <v>12.66677673897257</v>
+        <v>12.6641739136538</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.286129402270635</v>
+        <v>9.285205178345111</v>
       </c>
       <c r="F10">
         <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>41.5879076491339</v>
+        <v>40.84275100309065</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>41.58319657596841</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>18.97345008279945</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>10.64331450128358</v>
+        <v>18.97124627477958</v>
       </c>
       <c r="L10">
-        <v>17.02959940770612</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>10.64295442119019</v>
+      </c>
+      <c r="M10">
+        <v>17.02835236147548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.60947828215793</v>
+        <v>23.60721343756514</v>
       </c>
       <c r="C11">
-        <v>13.13734403975395</v>
+        <v>13.13435854717117</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.521083211572551</v>
+        <v>9.520060789484315</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>42.90422748677274</v>
+        <v>42.26872839628176</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>42.89865510447595</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>19.70851580062224</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>11.06612595717504</v>
+        <v>19.70595938370097</v>
       </c>
       <c r="L11">
-        <v>17.68619895419219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>11.06569266030262</v>
+      </c>
+      <c r="M11">
+        <v>17.68474271598011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.9475392822219</v>
+        <v>23.94513812715158</v>
       </c>
       <c r="C12">
-        <v>13.31356364434809</v>
+        <v>13.31043027190642</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.610333264306609</v>
+        <v>9.609274532430817</v>
       </c>
       <c r="F12">
         <v>39.67592721363785</v>
       </c>
       <c r="G12">
-        <v>43.40174459233035</v>
+        <v>42.80610837719409</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>43.3958647673925</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>19.98325813223045</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>11.22420066775319</v>
+        <v>19.98056406550348</v>
       </c>
       <c r="L12">
-        <v>17.9316222374394</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>11.22373790350399</v>
+      </c>
+      <c r="M12">
+        <v>17.93008374375613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.87492736799926</v>
+        <v>23.87255583339199</v>
       </c>
       <c r="C13">
-        <v>13.27569591423222</v>
+        <v>13.27259453766411</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.591098555903299</v>
+        <v>9.590047608832906</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>43.29463139360731</v>
+        <v>42.69048285467473</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>43.28881697655458</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>19.92424318696561</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>11.19024417209618</v>
+        <v>19.92157896512796</v>
       </c>
       <c r="L13">
-        <v>17.87890480946374</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>11.18978783760438</v>
+      </c>
+      <c r="M13">
+        <v>17.87738417763131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.63737943277942</v>
+        <v>23.63510349098202</v>
       </c>
       <c r="C14">
-        <v>13.15188005290766</v>
+        <v>13.14888245911608</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.528420032047581</v>
+        <v>9.527394606529549</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>42.94517532910497</v>
+        <v>42.31298871069432</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>42.93957728786987</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>19.73118964850233</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>11.07917064697346</v>
+        <v>19.72862199544731</v>
       </c>
       <c r="L14">
-        <v>17.70645304378213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>11.0787349628322</v>
+      </c>
+      <c r="M14">
+        <v>17.70499010336591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.49129550264274</v>
+        <v>23.48907736139065</v>
       </c>
       <c r="C15">
-        <v>13.07578857450199</v>
+        <v>13.07285413589652</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.490065168566842</v>
+        <v>9.489055482863067</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>42.73101118656372</v>
+        <v>42.08143595496786</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>42.72554806944219</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>19.61247747194595</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>11.01087502326123</v>
+        <v>19.60996840346689</v>
       </c>
       <c r="L15">
-        <v>17.60041016509969</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>11.01045175034298</v>
+      </c>
+      <c r="M15">
+        <v>17.59898214554609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.64500637999393</v>
+        <v>22.64310871834082</v>
       </c>
       <c r="C16">
-        <v>12.63573639386156</v>
+        <v>12.6331582103651</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.270811306676713</v>
+        <v>9.269893635045458</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>41.50173215251234</v>
+        <v>40.74917295841355</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>41.49708007670576</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>18.9248903934899</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>10.61538885134864</v>
+        <v>18.92270910461579</v>
       </c>
       <c r="L16">
-        <v>16.98622509075951</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>10.61503333170529</v>
+      </c>
+      <c r="M16">
+        <v>16.98499132785382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.11740180336104</v>
+        <v>22.11569194304231</v>
       </c>
       <c r="C17">
-        <v>12.36204242180026</v>
+        <v>12.35967844902664</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.136760489635671</v>
+        <v>9.135901060143762</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>40.74557608421949</v>
+        <v>39.92680919161876</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>40.74145663073343</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>18.49633516163747</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>10.36896904365049</v>
+        <v>18.49434861673945</v>
       </c>
       <c r="L17">
-        <v>16.60344527044488</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>10.36865235541913</v>
+      </c>
+      <c r="M17">
+        <v>16.60232598239386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.81073387637203</v>
+        <v>21.80912908923745</v>
       </c>
       <c r="C18">
-        <v>12.20318638584965</v>
+        <v>12.20094429207607</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.059815706816361</v>
+        <v>9.05899049978073</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>40.30982127693486</v>
+        <v>39.45183931821791</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>40.30602156019147</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>18.24727576262725</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>10.22578745272358</v>
+        <v>18.24539917807201</v>
       </c>
       <c r="L18">
-        <v>16.38100093390604</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>10.22549219529458</v>
+      </c>
+      <c r="M18">
+        <v>16.37994596029895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.70634170229369</v>
+        <v>21.70477201070332</v>
       </c>
       <c r="C19">
-        <v>12.14914858663612</v>
+        <v>12.14694755448954</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.033789952448505</v>
+        <v>9.032976462302294</v>
       </c>
       <c r="F19">
         <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>40.16213211427019</v>
+        <v>39.29067592128796</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>40.15844299945265</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>18.16249992204686</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>10.17705547463619</v>
+        <v>18.1606602405616</v>
       </c>
       <c r="L19">
-        <v>16.30528676969839</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>10.17676732684994</v>
+      </c>
+      <c r="M19">
+        <v>16.30425332677702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.17389551306801</v>
+        <v>22.17216597195448</v>
       </c>
       <c r="C20">
-        <v>12.39132475086296</v>
+        <v>12.38893811831546</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.151013936544976</v>
+        <v>9.150148233587998</v>
       </c>
       <c r="F20">
         <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>40.82615477313529</v>
+        <v>40.01455272921907</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>40.82197724652912</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>18.54221923457578</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>10.39534956156763</v>
+        <v>18.54021217711342</v>
       </c>
       <c r="L20">
-        <v>16.64442711283541</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>10.39502883536193</v>
+      </c>
+      <c r="M20">
+        <v>16.64329580114987</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.70727301519677</v>
+        <v>23.70496915433225</v>
       </c>
       <c r="C21">
-        <v>13.18829961851311</v>
+        <v>13.1852716293685</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.546822322204092</v>
+        <v>9.54578937849818</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>43.04784173041042</v>
+        <v>42.42393515352924</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>43.04217963982872</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>19.78798973395511</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>11.11184947688895</v>
+        <v>19.78539383623036</v>
       </c>
       <c r="L21">
-        <v>17.75719152179325</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>11.11140777746413</v>
+      </c>
+      <c r="M21">
+        <v>17.75571172418897</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.68322316689647</v>
+        <v>24.6805110698189</v>
       </c>
       <c r="C22">
-        <v>13.69777820416359</v>
+        <v>13.69431322135533</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.807157899620215</v>
+        <v>9.806020627381399</v>
       </c>
       <c r="F22">
         <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>44.49456525699198</v>
+        <v>43.98367279869678</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>44.48804114422351</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>20.58128359692336</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>11.5683534503429</v>
+        <v>20.57827826996331</v>
       </c>
       <c r="L22">
-        <v>18.46583497104447</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>11.56782232843627</v>
+      </c>
+      <c r="M22">
+        <v>18.4641093103814</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.16461531627276</v>
+        <v>24.16212447798344</v>
       </c>
       <c r="C23">
-        <v>13.42682843285843</v>
+        <v>13.42359863416345</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.668044418760573</v>
+        <v>9.666962454503521</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>43.72277452956565</v>
+        <v>43.15242571045591</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>43.71670116076265</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>20.15969616798065</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>11.32572703881841</v>
+        <v>20.15691195361623</v>
       </c>
       <c r="L23">
-        <v>18.08923301934198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>11.32524471866908</v>
+      </c>
+      <c r="M23">
+        <v>18.08764048231575</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.14836513799914</v>
+        <v>22.14664450352582</v>
       </c>
       <c r="C24">
-        <v>12.37809091431741</v>
+        <v>12.37571453015794</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.144569572798062</v>
+        <v>9.143706703759859</v>
       </c>
       <c r="F24">
         <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>40.78972837835214</v>
+        <v>39.9748906974049</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>40.78557706437246</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>18.52148340497666</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>10.38342764939145</v>
+        <v>18.51948562741018</v>
       </c>
       <c r="L24">
-        <v>16.62590665006104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>10.38310875151466</v>
+      </c>
+      <c r="M24">
+        <v>16.62478077888222</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.85002712987952</v>
+        <v>19.84902691147879</v>
       </c>
       <c r="C25">
-        <v>11.19146752151009</v>
+        <v>11.18996327022379</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.585982424649179</v>
+        <v>8.585383998634109</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>37.59394858308902</v>
+        <v>36.47181119955245</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>37.5923873246657</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>16.65547198421456</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>9.45898167075481</v>
+        <v>16.65424644589972</v>
       </c>
       <c r="L25">
-        <v>14.95960237878263</v>
+        <v>9.458886914369925</v>
+      </c>
+      <c r="M25">
+        <v>14.95892307669084</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.04035725799287</v>
+        <v>22.42601853154554</v>
       </c>
       <c r="C2">
-        <v>10.26322145216216</v>
+        <v>15.79444494154492</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.179181954961267</v>
+        <v>10.12928777647666</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>36.30621630022745</v>
       </c>
       <c r="G2">
-        <v>33.82014026250416</v>
+        <v>2.065207895951457</v>
       </c>
       <c r="H2">
-        <v>35.20894225103082</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.951670617285519</v>
       </c>
       <c r="K2">
-        <v>15.18679540599783</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>8.841319289245902</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>13.64906001206707</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>16.80932556153651</v>
+      </c>
+      <c r="N2">
+        <v>11.97486035910979</v>
+      </c>
+      <c r="O2">
+        <v>23.05119977241796</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.73714048714289</v>
+        <v>20.83152935617679</v>
       </c>
       <c r="C3">
-        <v>9.599313268157534</v>
+        <v>14.68662938127496</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.907217767281741</v>
+        <v>9.908445612961643</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>34.80393174159814</v>
       </c>
       <c r="G3">
-        <v>31.97768784214663</v>
+        <v>2.075154475758366</v>
       </c>
       <c r="H3">
-        <v>33.57401700433791</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.028895052655629</v>
       </c>
       <c r="K3">
-        <v>14.12981636783133</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>8.417037054417388</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>12.70616053977379</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>15.92360825209116</v>
+      </c>
+      <c r="N3">
+        <v>12.26033412873925</v>
+      </c>
+      <c r="O3">
+        <v>22.22338944370365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.89744499033136</v>
+        <v>19.80168139187684</v>
       </c>
       <c r="C4">
-        <v>9.173372902630403</v>
+        <v>13.97124267639582</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.742067394422572</v>
+        <v>9.774007488187497</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>33.88671322565626</v>
       </c>
       <c r="G4">
-        <v>30.82496429616865</v>
+        <v>2.081400120947851</v>
       </c>
       <c r="H4">
-        <v>32.56151472460173</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.078032258490671</v>
       </c>
       <c r="K4">
-        <v>13.44891657394828</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>8.154187057479167</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>12.09906856095319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>15.36523255745159</v>
+      </c>
+      <c r="N4">
+        <v>12.43823654302274</v>
+      </c>
+      <c r="O4">
+        <v>21.73041402207236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.54515112489433</v>
+        <v>19.36906123081707</v>
       </c>
       <c r="C5">
-        <v>8.995124063254281</v>
+        <v>13.6707383820095</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.675268758290575</v>
+        <v>9.719571208760664</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>33.51463521324046</v>
       </c>
       <c r="G5">
-        <v>30.35008388677666</v>
+        <v>2.083982356980776</v>
       </c>
       <c r="H5">
-        <v>32.14698438126216</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.098486232216136</v>
       </c>
       <c r="K5">
-        <v>13.16327339349567</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>8.04658795415385</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.8605439914684</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>15.13426858500925</v>
+      </c>
+      <c r="N5">
+        <v>12.51144424690515</v>
+      </c>
+      <c r="O5">
+        <v>21.53346510720097</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.48603748844383</v>
+        <v>19.29643822548752</v>
       </c>
       <c r="C6">
-        <v>8.965241798064703</v>
+        <v>13.62029391033965</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.664208464599021</v>
+        <v>9.710554835947139</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>33.45296681776761</v>
       </c>
       <c r="G6">
-        <v>30.27092969059629</v>
+        <v>2.084413438674397</v>
       </c>
       <c r="H6">
-        <v>32.07804424111275</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.101908524537788</v>
       </c>
       <c r="K6">
-        <v>13.11534499454055</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>8.028695334890349</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.83113185761856</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>15.09571846316618</v>
+      </c>
+      <c r="N6">
+        <v>12.52364474444065</v>
+      </c>
+      <c r="O6">
+        <v>21.50100291258781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.89273499201169</v>
+        <v>19.79589956805807</v>
       </c>
       <c r="C7">
-        <v>9.170987989785049</v>
+        <v>13.96722649173264</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.74116443706665</v>
+        <v>9.773271854808057</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>33.88168782897761</v>
       </c>
       <c r="G7">
-        <v>30.81858027281137</v>
+        <v>2.081434792835334</v>
       </c>
       <c r="H7">
-        <v>32.55593164403219</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.078306368839651</v>
       </c>
       <c r="K7">
-        <v>13.44509755958873</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>8.152737751522162</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>12.09566430930375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>15.36213119983273</v>
+      </c>
+      <c r="N7">
+        <v>12.43922090193812</v>
+      </c>
+      <c r="O7">
+        <v>21.72774180608645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.59909937838355</v>
+        <v>21.88668202166908</v>
       </c>
       <c r="C8">
-        <v>10.03805442896958</v>
+        <v>15.41969086355769</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.085048972665474</v>
+        <v>10.0529340254735</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>35.78736808692188</v>
       </c>
       <c r="G8">
-        <v>33.18943663378091</v>
+        <v>2.068610180033753</v>
       </c>
       <c r="H8">
-        <v>34.64713984293554</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.977938448277846</v>
       </c>
       <c r="K8">
-        <v>14.82887959578449</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>8.695566177077838</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>13.32971293936872</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>16.5070733504672</v>
+      </c>
+      <c r="N8">
+        <v>12.07278016484604</v>
+      </c>
+      <c r="O8">
+        <v>22.76264746531288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.64049507225329</v>
+        <v>25.59172595680378</v>
       </c>
       <c r="C9">
-        <v>11.59736625831658</v>
+        <v>17.99518641482255</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.772703596523696</v>
+        <v>10.60820183779205</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>39.55172362140083</v>
       </c>
       <c r="G9">
-        <v>37.6627940549137</v>
+        <v>2.044446257928777</v>
       </c>
       <c r="H9">
-        <v>38.67288993155302</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.794960730145215</v>
       </c>
       <c r="K9">
-        <v>17.29662183661085</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>9.738317175202885</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>15.53253929132958</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>18.66063116526283</v>
+      </c>
+      <c r="N9">
+        <v>11.37246727672536</v>
+      </c>
+      <c r="O9">
+        <v>24.91034610727653</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.70286351093831</v>
+        <v>28.08572126723766</v>
       </c>
       <c r="C10">
-        <v>12.6641739136538</v>
+        <v>19.73078409184285</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.285205178345111</v>
+        <v>11.01746579012902</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>42.32104690578032</v>
       </c>
       <c r="G10">
-        <v>40.84275100309065</v>
+        <v>2.027118575396914</v>
       </c>
       <c r="H10">
-        <v>41.58319657596841</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.669365706344044</v>
       </c>
       <c r="K10">
-        <v>18.97124627477958</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>10.64295442119019</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>17.02835236147548</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>20.44396802721454</v>
+      </c>
+      <c r="N10">
+        <v>10.86534412199637</v>
+      </c>
+      <c r="O10">
+        <v>26.55845250983995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.60721343756514</v>
+        <v>29.17393042326183</v>
       </c>
       <c r="C11">
-        <v>13.13435854717117</v>
+        <v>20.48874193250564</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.520060789484315</v>
+        <v>11.20342659274979</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>43.58064958951672</v>
       </c>
       <c r="G11">
-        <v>42.26872839628176</v>
+        <v>2.019283675893983</v>
       </c>
       <c r="H11">
-        <v>42.89865510447595</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.614291018259014</v>
       </c>
       <c r="K11">
-        <v>19.70595938370097</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>11.06569266030262</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>17.68474271598011</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>21.22010964597871</v>
+      </c>
+      <c r="N11">
+        <v>10.63535644538082</v>
+      </c>
+      <c r="O11">
+        <v>27.32393170071986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.94513812715158</v>
+        <v>29.57963908391508</v>
       </c>
       <c r="C12">
-        <v>13.31043027190642</v>
+        <v>20.77144361393172</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.609274532430817</v>
+        <v>11.27377954493192</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>44.0576375205176</v>
       </c>
       <c r="G12">
-        <v>42.80610837719409</v>
+        <v>2.016319411994155</v>
       </c>
       <c r="H12">
-        <v>43.3958647673925</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.593748975176834</v>
       </c>
       <c r="K12">
-        <v>19.98056406550348</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>11.22373790350399</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>17.93008374375613</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>21.50915058921116</v>
+      </c>
+      <c r="N12">
+        <v>10.54828901186951</v>
+      </c>
+      <c r="O12">
+        <v>27.61617304990753</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.87255583339199</v>
+        <v>29.49254094572765</v>
       </c>
       <c r="C13">
-        <v>13.27259453766411</v>
+        <v>20.71074713636951</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.590047608832906</v>
+        <v>11.25863121802045</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>43.9549079387372</v>
       </c>
       <c r="G13">
-        <v>42.69048285467473</v>
+        <v>2.016957774217926</v>
       </c>
       <c r="H13">
-        <v>43.28881697655458</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.598158796009847</v>
       </c>
       <c r="K13">
-        <v>19.92157896512796</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>11.18978783760438</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>17.87738417763131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>21.44711383176881</v>
+      </c>
+      <c r="N13">
+        <v>10.56704076043204</v>
+      </c>
+      <c r="O13">
+        <v>27.55312578794368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.63510349098202</v>
+        <v>29.2074342671543</v>
       </c>
       <c r="C14">
-        <v>13.14888245911608</v>
+        <v>20.5120852116263</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.527394606529549</v>
+        <v>11.20921608032294</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>43.61989107697695</v>
       </c>
       <c r="G14">
-        <v>42.31298871069432</v>
+        <v>2.019039777070065</v>
       </c>
       <c r="H14">
-        <v>42.93957728786987</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.612594610672728</v>
       </c>
       <c r="K14">
-        <v>19.72862199544731</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>11.0787349628322</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>17.70499010336591</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>21.24398565815362</v>
+      </c>
+      <c r="N14">
+        <v>10.6281933360824</v>
+      </c>
+      <c r="O14">
+        <v>27.34792620784071</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.48907736139065</v>
+        <v>29.03197740916961</v>
       </c>
       <c r="C15">
-        <v>13.07285413589652</v>
+        <v>20.38984333491427</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.489055482863067</v>
+        <v>11.17893830748576</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>43.41468662470261</v>
       </c>
       <c r="G15">
-        <v>42.08143595496786</v>
+        <v>2.020315274603691</v>
       </c>
       <c r="H15">
-        <v>42.72554806944219</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.621478397744349</v>
       </c>
       <c r="K15">
-        <v>19.60996840346689</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>11.01045175034298</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>17.59898214554609</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>21.11893564182399</v>
+      </c>
+      <c r="N15">
+        <v>10.66565179050055</v>
+      </c>
+      <c r="O15">
+        <v>27.22254860063823</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.64310871834082</v>
+        <v>28.01369607727716</v>
       </c>
       <c r="C16">
-        <v>12.6331582103651</v>
+        <v>19.68063265351925</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.269893635045458</v>
+        <v>11.00530529736969</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>42.23872559747918</v>
       </c>
       <c r="G16">
-        <v>40.74917295841355</v>
+        <v>2.027631214394323</v>
       </c>
       <c r="H16">
-        <v>41.49708007670576</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.673007785414364</v>
       </c>
       <c r="K16">
-        <v>18.92270910461579</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>10.61503333170529</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>16.98499132785382</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>20.39255400162282</v>
+      </c>
+      <c r="N16">
+        <v>10.88038202691788</v>
+      </c>
+      <c r="O16">
+        <v>26.50875115657612</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.11569194304231</v>
+        <v>27.37734493785781</v>
       </c>
       <c r="C17">
-        <v>12.35967844902664</v>
+        <v>19.23761691211149</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.135901060143762</v>
+        <v>10.89870456494651</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>41.51725615324529</v>
       </c>
       <c r="G17">
-        <v>39.92680919161876</v>
+        <v>2.032128659044766</v>
       </c>
       <c r="H17">
-        <v>40.74145663073343</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.705157745475034</v>
       </c>
       <c r="K17">
-        <v>18.49434861673945</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>10.36865235541913</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>16.60232598239386</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>19.93807418177967</v>
+      </c>
+      <c r="N17">
+        <v>11.01223899194845</v>
+      </c>
+      <c r="O17">
+        <v>26.07494854060417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.80912908923745</v>
+        <v>27.00695355937572</v>
       </c>
       <c r="C18">
-        <v>12.20094429207607</v>
+        <v>18.97981956701167</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.05899049978073</v>
+        <v>10.8373720798072</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>41.10226171727073</v>
       </c>
       <c r="G18">
-        <v>39.45183931821791</v>
+        <v>2.034720225465194</v>
       </c>
       <c r="H18">
-        <v>40.30602156019147</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.723842066577324</v>
       </c>
       <c r="K18">
-        <v>18.24539917807201</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>10.22549219529458</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>16.37994596029895</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>19.67335312377617</v>
+      </c>
+      <c r="N18">
+        <v>11.08815092889425</v>
+      </c>
+      <c r="O18">
+        <v>25.82690890854867</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.70477201070332</v>
+        <v>26.88078501142629</v>
       </c>
       <c r="C19">
-        <v>12.14694755448954</v>
+        <v>18.89201458629173</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.032976462302294</v>
+        <v>10.81660395575611</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>40.96174827599152</v>
       </c>
       <c r="G19">
-        <v>39.29067592128796</v>
+        <v>2.035598621615265</v>
       </c>
       <c r="H19">
-        <v>40.15844299945265</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.730200865294373</v>
       </c>
       <c r="K19">
-        <v>18.1606602405616</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>10.17676732684994</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>16.30425332677702</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>19.58314830344768</v>
+      </c>
+      <c r="N19">
+        <v>11.1138679386722</v>
+      </c>
+      <c r="O19">
+        <v>25.74317759305409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.17216597195448</v>
+        <v>27.44553682581634</v>
       </c>
       <c r="C20">
-        <v>12.38893811831546</v>
+        <v>19.28508426019901</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.150148233587998</v>
+        <v>10.9100545944191</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>41.59406042443216</v>
       </c>
       <c r="G20">
-        <v>40.01455272921907</v>
+        <v>2.031649434993374</v>
       </c>
       <c r="H20">
-        <v>40.82197724652912</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.701715291508522</v>
       </c>
       <c r="K20">
-        <v>18.54021217711342</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>10.39502883536193</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>16.64329580114987</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>19.98679629965354</v>
+      </c>
+      <c r="N20">
+        <v>10.99819576071199</v>
+      </c>
+      <c r="O20">
+        <v>26.12097464109926</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.70496915433225</v>
+        <v>29.29134749972681</v>
       </c>
       <c r="C21">
-        <v>13.1852716293685</v>
+        <v>20.57055241636956</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.54578937849818</v>
+        <v>11.22373255253735</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>43.71829282161552</v>
       </c>
       <c r="G21">
-        <v>42.42393515352924</v>
+        <v>2.018428206704413</v>
       </c>
       <c r="H21">
-        <v>43.04217963982872</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.608345789014551</v>
       </c>
       <c r="K21">
-        <v>19.78539383623036</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>11.11140777746413</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>17.75571172418897</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>21.30377988191908</v>
+      </c>
+      <c r="N21">
+        <v>10.61023133348381</v>
+      </c>
+      <c r="O21">
+        <v>27.40813277226556</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.6805110698189</v>
+        <v>30.46070547049802</v>
       </c>
       <c r="C22">
-        <v>13.69431322135533</v>
+        <v>21.38561768750565</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.806020627381399</v>
+        <v>11.42834112173823</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>45.10670921043277</v>
       </c>
       <c r="G22">
-        <v>43.98367279869678</v>
+        <v>2.009800428417041</v>
       </c>
       <c r="H22">
-        <v>44.48804114422351</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.549162845431158</v>
       </c>
       <c r="K22">
-        <v>20.57827826996331</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>11.56782232843627</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>18.4641093103814</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>22.13623365394069</v>
+      </c>
+      <c r="N22">
+        <v>10.35677437865076</v>
+      </c>
+      <c r="O22">
+        <v>28.26328375535968</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.16212447798344</v>
+        <v>29.83987738924426</v>
       </c>
       <c r="C23">
-        <v>13.42359863416345</v>
+        <v>20.95281590711782</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.666962454503521</v>
+        <v>11.31918393858258</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>44.36563952231951</v>
       </c>
       <c r="G23">
-        <v>43.15242571045591</v>
+        <v>2.014405569390767</v>
       </c>
       <c r="H23">
-        <v>43.71670116076265</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.580574492086219</v>
       </c>
       <c r="K23">
-        <v>20.15691195361623</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>11.32524471866908</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>18.08764048231575</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>21.69445944802666</v>
+      </c>
+      <c r="N23">
+        <v>10.49206672239563</v>
+      </c>
+      <c r="O23">
+        <v>27.80554710178558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.14664450352582</v>
+        <v>27.41472145017037</v>
       </c>
       <c r="C24">
-        <v>12.37571453015794</v>
+        <v>19.26363394949477</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.143706703759859</v>
+        <v>10.904923387536</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>41.55933787478936</v>
       </c>
       <c r="G24">
-        <v>39.9748906974049</v>
+        <v>2.031866073419871</v>
       </c>
       <c r="H24">
-        <v>40.78557706437246</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.703271000504753</v>
       </c>
       <c r="K24">
-        <v>18.51948562741018</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>10.38310875151466</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>16.62478077888222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>19.96477974150703</v>
+      </c>
+      <c r="N24">
+        <v>11.00454437079976</v>
+      </c>
+      <c r="O24">
+        <v>26.10016201439847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.84902691147879</v>
+        <v>24.63045841905808</v>
       </c>
       <c r="C25">
-        <v>11.18996327022379</v>
+        <v>17.32670186109626</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.585383998634109</v>
+        <v>10.45756618543329</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>38.53207960287001</v>
       </c>
       <c r="G25">
-        <v>36.47181119955245</v>
+        <v>2.050894742232705</v>
       </c>
       <c r="H25">
-        <v>37.5923873246657</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.842946509167191</v>
       </c>
       <c r="K25">
-        <v>16.65424644589972</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>9.458886914369925</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>14.95892307669084</v>
+        <v>18.06918353983625</v>
+      </c>
+      <c r="N25">
+        <v>11.5603356908551</v>
+      </c>
+      <c r="O25">
+        <v>24.31700449717216</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_10/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.42601853154554</v>
+        <v>22.65010566458812</v>
       </c>
       <c r="C2">
-        <v>15.79444494154492</v>
+        <v>13.38772600124694</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.12928777647666</v>
+        <v>8.265542753587088</v>
       </c>
       <c r="F2">
-        <v>36.30621630022745</v>
+        <v>29.34460262093939</v>
       </c>
       <c r="G2">
-        <v>2.065207895951457</v>
+        <v>33.79708012223018</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10.74456459984698</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>16.33261898803803</v>
       </c>
       <c r="J2">
-        <v>4.951670617285519</v>
+        <v>4.789536341096196</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.707075130173795</v>
       </c>
       <c r="M2">
-        <v>16.80932556153651</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>11.97486035910979</v>
+        <v>11.84693590248276</v>
       </c>
       <c r="O2">
-        <v>23.05119977241796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.83152935617679</v>
+        <v>21.09152832291898</v>
       </c>
       <c r="C3">
-        <v>14.68662938127496</v>
+        <v>12.5989611941688</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.908445612961643</v>
+        <v>8.242808559292596</v>
       </c>
       <c r="F3">
-        <v>34.80393174159814</v>
+        <v>28.45380948287307</v>
       </c>
       <c r="G3">
-        <v>2.075154475758366</v>
+        <v>32.43183821901259</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10.63112878732792</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>16.27858168148587</v>
       </c>
       <c r="J3">
-        <v>5.028895052655629</v>
+        <v>4.837895916129932</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>8.440045652034811</v>
       </c>
       <c r="M3">
-        <v>15.92360825209116</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.26033412873925</v>
+        <v>12.0630539833928</v>
       </c>
       <c r="O3">
-        <v>22.22338944370365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.80168139187684</v>
+        <v>20.08023036982335</v>
       </c>
       <c r="C4">
-        <v>13.97124267639582</v>
+        <v>12.09103965547008</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.774007488187497</v>
+        <v>8.231288039024665</v>
       </c>
       <c r="F4">
-        <v>33.88671322565626</v>
+        <v>27.92052819127834</v>
       </c>
       <c r="G4">
-        <v>2.081400120947851</v>
+        <v>31.60937802799074</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>10.57126850504165</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>16.26338925027706</v>
       </c>
       <c r="J4">
-        <v>5.078032258490671</v>
+        <v>4.868140527063751</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>8.27551693853594</v>
       </c>
       <c r="M4">
-        <v>15.36523255745159</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>12.43823654302274</v>
+        <v>12.19868313147607</v>
       </c>
       <c r="O4">
-        <v>21.73041402207236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.36906123081707</v>
+        <v>19.67376408470868</v>
       </c>
       <c r="C5">
-        <v>13.6707383820095</v>
+        <v>11.87814442072353</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.719571208760664</v>
+        <v>8.227199187463432</v>
       </c>
       <c r="F5">
-        <v>33.51463521324046</v>
+        <v>27.70686594226242</v>
       </c>
       <c r="G5">
-        <v>2.083982356980776</v>
+        <v>31.27859529161024</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10.54926046435494</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>16.2615118214447</v>
       </c>
       <c r="J5">
-        <v>5.098486232216136</v>
+        <v>4.880613637274831</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>8.208414462030616</v>
       </c>
       <c r="M5">
-        <v>15.13426858500925</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>12.51144424690515</v>
+        <v>12.25471391705466</v>
       </c>
       <c r="O5">
-        <v>21.53346510720097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.29643822548752</v>
+        <v>19.60685532334963</v>
       </c>
       <c r="C6">
-        <v>13.62029391033965</v>
+        <v>11.84243733769264</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.710554835947139</v>
+        <v>8.22655661421102</v>
       </c>
       <c r="F6">
-        <v>33.45296681776761</v>
+        <v>27.67161454978161</v>
       </c>
       <c r="G6">
-        <v>2.084413438674397</v>
+        <v>31.22394560977851</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10.54574780563263</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>16.26145444433067</v>
       </c>
       <c r="J6">
-        <v>5.101908524537788</v>
+        <v>4.882694003225058</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>8.197271470304129</v>
       </c>
       <c r="M6">
-        <v>15.09571846316618</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>12.52364474444065</v>
+        <v>12.26406441303934</v>
       </c>
       <c r="O6">
-        <v>21.50100291258781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.79589956805807</v>
+        <v>20.07454282844632</v>
       </c>
       <c r="C7">
-        <v>13.96722649173264</v>
+        <v>12.0881923693592</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.773271854808057</v>
+        <v>8.231230451935865</v>
       </c>
       <c r="F7">
-        <v>33.88168782897761</v>
+        <v>27.91763158399572</v>
       </c>
       <c r="G7">
-        <v>2.081434792835334</v>
+        <v>31.60489870655673</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>10.57096214217702</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>16.26334674318639</v>
       </c>
       <c r="J7">
-        <v>5.078306368839651</v>
+        <v>4.868308131704771</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>8.274612075887553</v>
       </c>
       <c r="M7">
-        <v>15.36213119983273</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>12.43922090193812</v>
+        <v>12.19943567107979</v>
       </c>
       <c r="O7">
-        <v>21.72774180608645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.88668202166908</v>
+        <v>22.12392693398334</v>
       </c>
       <c r="C8">
-        <v>15.41969086355769</v>
+        <v>13.12067072795657</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.0529340254735</v>
+        <v>8.257193534600592</v>
       </c>
       <c r="F8">
-        <v>35.78736808692188</v>
+        <v>29.03474902223318</v>
       </c>
       <c r="G8">
-        <v>2.068610180033753</v>
+        <v>33.32329714498867</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10.70337566097685</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>16.31012874024022</v>
       </c>
       <c r="J8">
-        <v>4.977938448277846</v>
+        <v>4.806102133589536</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>8.615172864831241</v>
       </c>
       <c r="M8">
-        <v>16.5070733504672</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12.07278016484604</v>
+        <v>11.920859384904</v>
       </c>
       <c r="O8">
-        <v>22.76264746531288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.59172595680378</v>
+        <v>25.71616032755472</v>
       </c>
       <c r="C9">
-        <v>17.99518641482255</v>
+        <v>14.95785246419589</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.60820183779205</v>
+        <v>8.327786861857888</v>
       </c>
       <c r="F9">
-        <v>39.55172362140083</v>
+        <v>31.32477279077711</v>
       </c>
       <c r="G9">
-        <v>2.044446257928777</v>
+        <v>36.80266645047972</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11.04389283112039</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>16.55376516895955</v>
       </c>
       <c r="J9">
-        <v>4.794960730145215</v>
+        <v>4.6880298211997</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.274956416708145</v>
       </c>
       <c r="M9">
-        <v>18.66063116526283</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>11.37246727672536</v>
+        <v>11.39672373836346</v>
       </c>
       <c r="O9">
-        <v>24.91034610727653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.08572126723766</v>
+        <v>28.10200172740896</v>
       </c>
       <c r="C10">
-        <v>19.73078409184285</v>
+        <v>16.19443702100769</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.01746579012902</v>
+        <v>8.392122718783988</v>
       </c>
       <c r="F10">
-        <v>42.32104690578032</v>
+        <v>33.05689995443544</v>
       </c>
       <c r="G10">
-        <v>2.027118575396914</v>
+        <v>39.40831864918281</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>11.34742606349065</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>16.83759498729133</v>
       </c>
       <c r="J10">
-        <v>4.669365706344044</v>
+        <v>4.602963099747127</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.750633150684715</v>
       </c>
       <c r="M10">
-        <v>20.44396802721454</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>10.86534412199637</v>
+        <v>11.02353753811361</v>
       </c>
       <c r="O10">
-        <v>26.55845250983995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.17393042326183</v>
+        <v>29.13396739676901</v>
       </c>
       <c r="C11">
-        <v>20.48874193250564</v>
+        <v>16.73296212480986</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.20342659274979</v>
+        <v>8.424206196283967</v>
       </c>
       <c r="F11">
-        <v>43.58064958951672</v>
+        <v>33.85384802042918</v>
       </c>
       <c r="G11">
-        <v>2.019283675893983</v>
+        <v>40.60195754417128</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>11.49790098548627</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>16.99199113832508</v>
       </c>
       <c r="J11">
-        <v>4.614291018259014</v>
+        <v>4.564455102105929</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.964352959059148</v>
       </c>
       <c r="M11">
-        <v>21.22010964597871</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>10.63535644538082</v>
+        <v>10.85598281595463</v>
       </c>
       <c r="O11">
-        <v>27.32393170071986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.57963908391508</v>
+        <v>29.517213204343</v>
       </c>
       <c r="C12">
-        <v>20.77144361393172</v>
+        <v>16.9334978233505</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.27377954493192</v>
+        <v>8.436769662863041</v>
       </c>
       <c r="F12">
-        <v>44.0576375205176</v>
+        <v>34.15681325577418</v>
       </c>
       <c r="G12">
-        <v>2.016319411994155</v>
+        <v>41.05503790731811</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>11.55672740923991</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>17.0542905797937</v>
       </c>
       <c r="J12">
-        <v>4.593748975176834</v>
+        <v>4.549884317609616</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.04485195123065</v>
       </c>
       <c r="M12">
-        <v>21.50915058921116</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>10.54828901186951</v>
+        <v>10.79282113392498</v>
       </c>
       <c r="O12">
-        <v>27.61617304990753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.49254094572765</v>
+        <v>29.43500729896104</v>
       </c>
       <c r="C13">
-        <v>20.71074713636951</v>
+        <v>16.89045864670235</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.25863121802045</v>
+        <v>8.434045324084945</v>
       </c>
       <c r="F13">
-        <v>43.9549079387372</v>
+        <v>34.0915133071282</v>
       </c>
       <c r="G13">
-        <v>2.016957774217926</v>
+        <v>40.95741224748983</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>11.54397504469678</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>17.04069971280236</v>
       </c>
       <c r="J13">
-        <v>4.598158796009847</v>
+        <v>4.553022161173178</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.02753494345268</v>
       </c>
       <c r="M13">
-        <v>21.44711383176881</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>10.56704076043204</v>
+        <v>10.80641182797413</v>
       </c>
       <c r="O13">
-        <v>27.55312578794368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.2074342671543</v>
+        <v>29.16564749859638</v>
       </c>
       <c r="C14">
-        <v>20.5120852116263</v>
+        <v>16.74952791144177</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.20921608032294</v>
+        <v>8.425231445581725</v>
       </c>
       <c r="F14">
-        <v>43.61989107697695</v>
+        <v>33.87875006673954</v>
       </c>
       <c r="G14">
-        <v>2.019039777070065</v>
+        <v>40.63921161455765</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>11.50270334088855</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>16.99703861781827</v>
       </c>
       <c r="J14">
-        <v>4.612594610672728</v>
+        <v>4.563256223754183</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.970984563859462</v>
       </c>
       <c r="M14">
-        <v>21.24398565815362</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>10.6281933360824</v>
+        <v>10.85078087705332</v>
       </c>
       <c r="O14">
-        <v>27.34792620784071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.03197740916961</v>
+        <v>28.99967950220009</v>
       </c>
       <c r="C15">
-        <v>20.38984333491427</v>
+        <v>16.66276401192719</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.17893830748576</v>
+        <v>8.419886906218602</v>
       </c>
       <c r="F15">
-        <v>43.41468662470261</v>
+        <v>33.74857709456307</v>
       </c>
       <c r="G15">
-        <v>2.020315274603691</v>
+        <v>40.44444225703006</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>11.47766532946988</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>16.97079988372733</v>
       </c>
       <c r="J15">
-        <v>4.621478397744349</v>
+        <v>4.569525864191519</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.936288273925152</v>
       </c>
       <c r="M15">
-        <v>21.11893564182399</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>10.66565179050055</v>
+        <v>10.87799475282284</v>
       </c>
       <c r="O15">
-        <v>27.22254860063823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.01369607727716</v>
+        <v>28.03349795846126</v>
       </c>
       <c r="C16">
-        <v>19.68063265351925</v>
+        <v>16.15876492285513</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.00530529736969</v>
+        <v>8.390083432522371</v>
       </c>
       <c r="F16">
-        <v>42.23872559747918</v>
+        <v>33.0049878581286</v>
       </c>
       <c r="G16">
-        <v>2.027631214394323</v>
+        <v>39.33046687816717</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>11.33784694759632</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>16.82803055747016</v>
       </c>
       <c r="J16">
-        <v>4.673007785414364</v>
+        <v>4.605482176347892</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.73660802820222</v>
       </c>
       <c r="M16">
-        <v>20.39255400162282</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>10.88038202691788</v>
+        <v>11.03452954648236</v>
       </c>
       <c r="O16">
-        <v>26.50875115657612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.37734493785781</v>
+        <v>27.42720292591889</v>
       </c>
       <c r="C17">
-        <v>19.23761691211149</v>
+        <v>15.84346818666598</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.89870456494651</v>
+        <v>8.372527694584498</v>
       </c>
       <c r="F17">
-        <v>41.51725615324529</v>
+        <v>32.55103053997751</v>
       </c>
       <c r="G17">
-        <v>2.032128659044766</v>
+        <v>38.6490997772947</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>11.25529232922144</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>16.7470634306465</v>
       </c>
       <c r="J17">
-        <v>4.705157745475034</v>
+        <v>4.627577886531801</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.613390037988841</v>
       </c>
       <c r="M17">
-        <v>19.93807418177967</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.01223899194845</v>
+        <v>11.13110340448321</v>
       </c>
       <c r="O17">
-        <v>26.07494854060417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.00695355937572</v>
+        <v>27.07344629507673</v>
       </c>
       <c r="C18">
-        <v>18.97981956701167</v>
+        <v>15.659854129735</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.8373720798072</v>
+        <v>8.362694650200625</v>
       </c>
       <c r="F18">
-        <v>41.10226171727073</v>
+        <v>32.2907776976434</v>
       </c>
       <c r="G18">
-        <v>2.034720225465194</v>
+        <v>38.25798076567953</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>11.20897223761998</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>16.70286133625765</v>
       </c>
       <c r="J18">
-        <v>4.723842066577324</v>
+        <v>4.640305607962621</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.54226951993712</v>
       </c>
       <c r="M18">
-        <v>19.67335312377617</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>11.08815092889425</v>
+        <v>11.18685996869506</v>
       </c>
       <c r="O18">
-        <v>25.82690890854867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.88078501142629</v>
+        <v>26.95280215932084</v>
       </c>
       <c r="C19">
-        <v>18.89201458629173</v>
+        <v>15.59729516911866</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.81660395575611</v>
+        <v>8.359410519990613</v>
       </c>
       <c r="F19">
-        <v>40.96174827599152</v>
+        <v>32.20281087845947</v>
       </c>
       <c r="G19">
-        <v>2.035598621615265</v>
+        <v>38.12569433835218</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>11.19348691577621</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>16.68829587512192</v>
       </c>
       <c r="J19">
-        <v>4.730200865294373</v>
+        <v>4.644618692032736</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.518148227711436</v>
       </c>
       <c r="M19">
-        <v>19.58314830344768</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11.1138679386722</v>
+        <v>11.2057751230455</v>
       </c>
       <c r="O19">
-        <v>25.74317759305409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.44553682581634</v>
+        <v>27.49226387596249</v>
       </c>
       <c r="C20">
-        <v>19.28508426019901</v>
+        <v>15.87726595818307</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.9100545944191</v>
+        <v>8.374369088838048</v>
       </c>
       <c r="F20">
-        <v>41.59406042443216</v>
+        <v>32.5992679036928</v>
       </c>
       <c r="G20">
-        <v>2.031649434993374</v>
+        <v>38.72155229720015</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>11.26395957647866</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>16.75543598685256</v>
       </c>
       <c r="J20">
-        <v>4.701715291508522</v>
+        <v>4.62522391915769</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.626532931542103</v>
       </c>
       <c r="M20">
-        <v>19.98679629965354</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>10.99819576071199</v>
+        <v>11.12080145002254</v>
       </c>
       <c r="O20">
-        <v>26.12097464109926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.29134749972681</v>
+        <v>29.24496842029849</v>
       </c>
       <c r="C21">
-        <v>20.57055241636956</v>
+        <v>16.79101420422186</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.22373255253735</v>
+        <v>8.42780897963816</v>
       </c>
       <c r="F21">
-        <v>43.71829282161552</v>
+        <v>33.94121254470876</v>
       </c>
       <c r="G21">
-        <v>2.018428206704413</v>
+        <v>40.73264626338317</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>11.51477527624182</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>17.00975736331555</v>
       </c>
       <c r="J21">
-        <v>4.608345789014551</v>
+        <v>4.560250057513443</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.987606848100423</v>
       </c>
       <c r="M21">
-        <v>21.30377988191908</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>10.61023133348381</v>
+        <v>10.83774104945538</v>
       </c>
       <c r="O21">
-        <v>27.40813277226556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.46070547049802</v>
+        <v>30.34660027627445</v>
       </c>
       <c r="C22">
-        <v>21.38561768750565</v>
+        <v>17.36846692115418</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.42834112173823</v>
+        <v>8.465153754639184</v>
       </c>
       <c r="F22">
-        <v>45.10670921043277</v>
+        <v>34.8250924131092</v>
       </c>
       <c r="G22">
-        <v>2.009800428417041</v>
+        <v>42.05327730243527</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.68948019552145</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>17.19840100977548</v>
       </c>
       <c r="J22">
-        <v>4.549162845431158</v>
+        <v>4.517843550092046</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.22105511446514</v>
       </c>
       <c r="M22">
-        <v>22.13623365394069</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>10.35677437865076</v>
+        <v>10.65440675878619</v>
       </c>
       <c r="O22">
-        <v>28.26328375535968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.83987738924426</v>
+        <v>29.7626042142737</v>
       </c>
       <c r="C23">
-        <v>20.95281590711782</v>
+        <v>17.06205214819441</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.31918393858258</v>
+        <v>8.44499764483904</v>
       </c>
       <c r="F23">
-        <v>44.36563952231951</v>
+        <v>34.35275144112511</v>
       </c>
       <c r="G23">
-        <v>2.014405569390767</v>
+        <v>41.34787875758113</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>11.59522965408405</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>17.09560192467934</v>
       </c>
       <c r="J23">
-        <v>4.580574492086219</v>
+        <v>4.540477088536608</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>10.09670492646602</v>
       </c>
       <c r="M23">
-        <v>21.69445944802666</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>10.49206672239563</v>
+        <v>10.75211382762694</v>
       </c>
       <c r="O23">
-        <v>27.80554710178558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.41472145017037</v>
+        <v>27.462865994928</v>
       </c>
       <c r="C24">
-        <v>19.26363394949477</v>
+        <v>15.86199329655737</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.904923387536</v>
+        <v>8.373535785384446</v>
       </c>
       <c r="F24">
-        <v>41.55933787478936</v>
+        <v>32.57745749837694</v>
       </c>
       <c r="G24">
-        <v>2.031866073419871</v>
+        <v>38.68879460904549</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>11.26003756268735</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>16.75164345888197</v>
       </c>
       <c r="J24">
-        <v>4.703271000504753</v>
+        <v>4.626288069995078</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.620591900382868</v>
       </c>
       <c r="M24">
-        <v>19.96477974150703</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.00454437079976</v>
+        <v>11.12545822950094</v>
       </c>
       <c r="O24">
-        <v>26.10016201439847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.63045841905808</v>
+        <v>24.78937414347507</v>
       </c>
       <c r="C25">
-        <v>17.32670186109626</v>
+        <v>14.48086291417784</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.45756618543329</v>
+        <v>8.306534362480098</v>
       </c>
       <c r="F25">
-        <v>38.53207960287001</v>
+        <v>30.6958276348759</v>
       </c>
       <c r="G25">
-        <v>2.050894742232705</v>
+        <v>35.85168192032062</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10.94268349103406</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>16.47031197535029</v>
       </c>
       <c r="J25">
-        <v>4.842946509167191</v>
+        <v>4.719621628357016</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.097789798451013</v>
       </c>
       <c r="M25">
-        <v>18.06918353983625</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>11.5603356908551</v>
+        <v>11.53630733102259</v>
       </c>
       <c r="O25">
-        <v>24.31700449717216</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_10/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.65010566458812</v>
+        <v>18.34672923810091</v>
       </c>
       <c r="C2">
-        <v>13.38772600124694</v>
+        <v>9.184794409951568</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.265542753587088</v>
+        <v>14.42623828828769</v>
       </c>
       <c r="F2">
-        <v>29.34460262093939</v>
+        <v>38.76547630129511</v>
       </c>
       <c r="G2">
-        <v>33.79708012223018</v>
+        <v>38.01008693309698</v>
       </c>
       <c r="H2">
-        <v>10.74456459984698</v>
+        <v>16.37295692481242</v>
       </c>
       <c r="I2">
-        <v>16.33261898803803</v>
+        <v>25.16386250524436</v>
       </c>
       <c r="J2">
-        <v>4.789536341096196</v>
+        <v>7.900487943053969</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.707075130173795</v>
+        <v>12.82890023916018</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.84693590248276</v>
+        <v>18.03691089615791</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.09152832291898</v>
+        <v>17.88285286626935</v>
       </c>
       <c r="C3">
-        <v>12.5989611941688</v>
+        <v>8.820871057815937</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.242808559292596</v>
+        <v>14.44510135219539</v>
       </c>
       <c r="F3">
-        <v>28.45380948287307</v>
+        <v>38.73927107487006</v>
       </c>
       <c r="G3">
-        <v>32.43183821901259</v>
+        <v>37.88981539016788</v>
       </c>
       <c r="H3">
-        <v>10.63112878732792</v>
+        <v>16.41104399871963</v>
       </c>
       <c r="I3">
-        <v>16.27858168148587</v>
+        <v>25.25057699658393</v>
       </c>
       <c r="J3">
-        <v>4.837895916129932</v>
+        <v>7.914883362388222</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.440045652034811</v>
+        <v>12.80832424424728</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.0630539833928</v>
+        <v>18.10086277752859</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.08023036982335</v>
+        <v>17.59537166305229</v>
       </c>
       <c r="C4">
-        <v>12.09103965547008</v>
+        <v>8.587701125750435</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.231288039024665</v>
+        <v>14.45793278204563</v>
       </c>
       <c r="F4">
-        <v>27.92052819127834</v>
+        <v>38.73332471907418</v>
       </c>
       <c r="G4">
-        <v>31.60937802799074</v>
+        <v>37.83003543434909</v>
       </c>
       <c r="H4">
-        <v>10.57126850504165</v>
+        <v>16.43805492014402</v>
       </c>
       <c r="I4">
-        <v>16.26338925027706</v>
+        <v>25.30978788258752</v>
       </c>
       <c r="J4">
-        <v>4.868140527063751</v>
+        <v>7.924150144783411</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.27551693853594</v>
+        <v>12.79749856521316</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.19868313147607</v>
+        <v>18.14202311622726</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.67376408470868</v>
+        <v>17.47773128296563</v>
       </c>
       <c r="C5">
-        <v>11.87814442072353</v>
+        <v>8.490314984490217</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.227199187463432</v>
+        <v>14.46347649867637</v>
       </c>
       <c r="F5">
-        <v>27.70686594226242</v>
+        <v>38.7334535712024</v>
       </c>
       <c r="G5">
-        <v>31.27859529161024</v>
+        <v>37.80922410993161</v>
       </c>
       <c r="H5">
-        <v>10.54926046435494</v>
+        <v>16.4499711931204</v>
       </c>
       <c r="I5">
-        <v>16.2615118214447</v>
+        <v>25.33541227079636</v>
       </c>
       <c r="J5">
-        <v>4.880613637274831</v>
+        <v>7.928034422362884</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.208414462030616</v>
+        <v>12.79354487962372</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.25471391705466</v>
+        <v>18.15927388707626</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.60685532334963</v>
+        <v>17.45817301962876</v>
       </c>
       <c r="C6">
-        <v>11.84243733769264</v>
+        <v>8.474003541752536</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.22655661421102</v>
+        <v>14.46441606019939</v>
       </c>
       <c r="F6">
-        <v>27.67161454978161</v>
+        <v>38.73362910403995</v>
       </c>
       <c r="G6">
-        <v>31.22394560977851</v>
+        <v>37.80598303580231</v>
       </c>
       <c r="H6">
-        <v>10.54574780563263</v>
+        <v>16.45200471220204</v>
       </c>
       <c r="I6">
-        <v>16.26145444433067</v>
+        <v>25.33975734962036</v>
       </c>
       <c r="J6">
-        <v>4.882694003225058</v>
+        <v>7.928685937104138</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.197271470304129</v>
+        <v>12.79291611567097</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.26406441303934</v>
+        <v>18.16216725245175</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.07454282844632</v>
+        <v>17.5937868628477</v>
       </c>
       <c r="C7">
-        <v>12.0881923693592</v>
+        <v>8.58639721926459</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.231230451935865</v>
+        <v>14.45800627107965</v>
       </c>
       <c r="F7">
-        <v>27.91763158399572</v>
+        <v>38.7333161234881</v>
       </c>
       <c r="G7">
-        <v>31.60489870655673</v>
+        <v>37.82974038182216</v>
       </c>
       <c r="H7">
-        <v>10.57096214217702</v>
+        <v>16.4382119497246</v>
       </c>
       <c r="I7">
-        <v>16.26334674318639</v>
+        <v>25.31012741394937</v>
       </c>
       <c r="J7">
-        <v>4.868308131704771</v>
+        <v>7.924202091771967</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.274612075887553</v>
+        <v>12.79744338649918</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.19943567107979</v>
+        <v>18.14225383049313</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.12392693398334</v>
+        <v>18.1874415499258</v>
       </c>
       <c r="C8">
-        <v>13.12067072795657</v>
+        <v>9.061373681501353</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.257193534600592</v>
+        <v>14.43248333002601</v>
       </c>
       <c r="F8">
-        <v>29.03474902223318</v>
+        <v>38.75433675924572</v>
       </c>
       <c r="G8">
-        <v>33.32329714498867</v>
+        <v>37.96570657635471</v>
       </c>
       <c r="H8">
-        <v>10.70337566097685</v>
+        <v>16.38533545445738</v>
       </c>
       <c r="I8">
-        <v>16.31012874024022</v>
+        <v>25.19251995307339</v>
       </c>
       <c r="J8">
-        <v>4.806102133589536</v>
+        <v>7.905362895135101</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.615172864831241</v>
+        <v>12.82143237827346</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.920859384904</v>
+        <v>18.05856934564001</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.71616032755472</v>
+        <v>19.3230638044944</v>
       </c>
       <c r="C9">
-        <v>14.95785246419589</v>
+        <v>9.912823498321565</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.327786861857888</v>
+        <v>14.39231914356174</v>
       </c>
       <c r="F9">
-        <v>31.32477279077711</v>
+        <v>38.8759045701733</v>
       </c>
       <c r="G9">
-        <v>36.80266645047972</v>
+        <v>38.34316495663327</v>
       </c>
       <c r="H9">
-        <v>11.04389283112039</v>
+        <v>16.3105161892921</v>
       </c>
       <c r="I9">
-        <v>16.55376516895955</v>
+        <v>25.00947168366596</v>
       </c>
       <c r="J9">
-        <v>4.6880298211997</v>
+        <v>7.871797275755632</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.274956416708145</v>
+        <v>12.88266953927435</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.39672373836346</v>
+        <v>17.90942362338756</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.10200172740896</v>
+        <v>20.13074574548422</v>
       </c>
       <c r="C10">
-        <v>16.19443702100769</v>
+        <v>10.48643288421343</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.392122718783988</v>
+        <v>14.36880047586209</v>
       </c>
       <c r="F10">
-        <v>33.05689995443544</v>
+        <v>39.01389354994728</v>
       </c>
       <c r="G10">
-        <v>39.40831864918281</v>
+        <v>38.68663156718811</v>
       </c>
       <c r="H10">
-        <v>11.34742606349065</v>
+        <v>16.27328345111251</v>
       </c>
       <c r="I10">
-        <v>16.83759498729133</v>
+        <v>24.90429606007138</v>
       </c>
       <c r="J10">
-        <v>4.602963099747127</v>
+        <v>7.849171228402042</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.750633150684715</v>
+        <v>12.93609646106281</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.02353753811361</v>
+        <v>17.80887314947211</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.13396739676901</v>
+        <v>20.4906432456987</v>
       </c>
       <c r="C11">
-        <v>16.73296212480986</v>
+        <v>10.73558376267644</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.424206196283967</v>
+        <v>14.35939389311689</v>
       </c>
       <c r="F11">
-        <v>33.85384802042918</v>
+        <v>39.08712947929475</v>
       </c>
       <c r="G11">
-        <v>40.60195754417128</v>
+        <v>38.85683666652152</v>
       </c>
       <c r="H11">
-        <v>11.49790098548627</v>
+        <v>16.26022208459126</v>
       </c>
       <c r="I11">
-        <v>16.99199113832508</v>
+        <v>24.86287552854487</v>
       </c>
       <c r="J11">
-        <v>4.564455102105929</v>
+        <v>7.839314567303017</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.964352959059148</v>
+        <v>12.96218171446583</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.85598281595463</v>
+        <v>17.76507063334423</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.517213204343</v>
+        <v>20.62571465974166</v>
       </c>
       <c r="C12">
-        <v>16.9334978233505</v>
+        <v>10.82820104369992</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.436769662863041</v>
+        <v>14.35601700187968</v>
       </c>
       <c r="F12">
-        <v>34.15681325577418</v>
+        <v>39.11635421858168</v>
       </c>
       <c r="G12">
-        <v>41.05503790731811</v>
+        <v>38.92325439319618</v>
       </c>
       <c r="H12">
-        <v>11.55672740923991</v>
+        <v>16.25583516578131</v>
       </c>
       <c r="I12">
-        <v>17.0542905797937</v>
+        <v>24.84811932780274</v>
       </c>
       <c r="J12">
-        <v>4.549884317609616</v>
+        <v>7.835644408457503</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.04485195123065</v>
+        <v>12.97231078683247</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.79282113392498</v>
+        <v>17.74876105753753</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.43500729896104</v>
+        <v>20.59668059659154</v>
       </c>
       <c r="C13">
-        <v>16.89045864670235</v>
+        <v>10.80833174034816</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.434045324084945</v>
+        <v>14.35673605025593</v>
       </c>
       <c r="F13">
-        <v>34.0915133071282</v>
+        <v>39.10999402208147</v>
       </c>
       <c r="G13">
-        <v>40.95741224748983</v>
+        <v>38.90886349329988</v>
       </c>
       <c r="H13">
-        <v>11.54397504469678</v>
+        <v>16.25675507357304</v>
       </c>
       <c r="I13">
-        <v>17.04069971280236</v>
+        <v>24.85125595039596</v>
       </c>
       <c r="J13">
-        <v>4.553022161173178</v>
+        <v>7.836432075700718</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.02753494345268</v>
+        <v>12.97011822150435</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.80641182797413</v>
+        <v>17.75226129495696</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.16564749859638</v>
+        <v>20.50178070112714</v>
       </c>
       <c r="C14">
-        <v>16.74952791144177</v>
+        <v>10.74323831373444</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.425231445581725</v>
+        <v>14.3591123666899</v>
       </c>
       <c r="F14">
-        <v>33.87875006673954</v>
+        <v>39.08950399735516</v>
       </c>
       <c r="G14">
-        <v>40.63921161455765</v>
+        <v>38.86226177730907</v>
       </c>
       <c r="H14">
-        <v>11.50270334088855</v>
+        <v>16.25984995482953</v>
       </c>
       <c r="I14">
-        <v>16.99703861781827</v>
+        <v>24.86164288321837</v>
       </c>
       <c r="J14">
-        <v>4.563256223754183</v>
+        <v>7.839011373684655</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.970984563859462</v>
+        <v>12.96301003519895</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.85078087705332</v>
+        <v>17.76372328059404</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.99967950220009</v>
+        <v>20.44348993963275</v>
       </c>
       <c r="C15">
-        <v>16.66276401192719</v>
+        <v>10.70314035091275</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.419886906218602</v>
+        <v>14.36059202563849</v>
       </c>
       <c r="F15">
-        <v>33.74857709456307</v>
+        <v>39.07714713717675</v>
       </c>
       <c r="G15">
-        <v>40.44444225703006</v>
+        <v>38.83397140285779</v>
       </c>
       <c r="H15">
-        <v>11.47766532946988</v>
+        <v>16.26181852398735</v>
       </c>
       <c r="I15">
-        <v>16.97079988372733</v>
+        <v>24.86812629009869</v>
       </c>
       <c r="J15">
-        <v>4.569525864191519</v>
+        <v>7.840599376730157</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.936288273925152</v>
+        <v>12.95868862171899</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.87799475282284</v>
+        <v>17.77078017782339</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.03349795846126</v>
+        <v>20.10706268065329</v>
       </c>
       <c r="C16">
-        <v>16.15876492285513</v>
+        <v>10.46990991194482</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.390083432522371</v>
+        <v>14.36944116595553</v>
       </c>
       <c r="F16">
-        <v>33.0049878581286</v>
+        <v>39.0093169223475</v>
       </c>
       <c r="G16">
-        <v>39.33046687816717</v>
+        <v>38.67578563422786</v>
       </c>
       <c r="H16">
-        <v>11.33784694759632</v>
+        <v>16.27421519372913</v>
       </c>
       <c r="I16">
-        <v>16.82803055747016</v>
+        <v>24.90713269919253</v>
       </c>
       <c r="J16">
-        <v>4.605482176347892</v>
+        <v>7.849824128056643</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.73660802820222</v>
+        <v>12.93442714977913</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.03452954648236</v>
+        <v>17.81177464489421</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.42720292591889</v>
+        <v>19.89865138373856</v>
       </c>
       <c r="C17">
-        <v>15.84346818666598</v>
+        <v>10.32378433470521</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.372527694584498</v>
+        <v>14.37520033536476</v>
       </c>
       <c r="F17">
-        <v>32.55103053997751</v>
+        <v>38.97037689099187</v>
       </c>
       <c r="G17">
-        <v>38.6490997772947</v>
+        <v>38.58229044688179</v>
       </c>
       <c r="H17">
-        <v>11.25529232922144</v>
+        <v>16.28281421621353</v>
       </c>
       <c r="I17">
-        <v>16.7470634306465</v>
+        <v>24.93271095100502</v>
       </c>
       <c r="J17">
-        <v>4.627577886531801</v>
+        <v>7.855594639973345</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.613390037988841</v>
+        <v>12.91999624940104</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.13110340448321</v>
+        <v>17.83741899532503</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.07344629507673</v>
+        <v>19.77807801175672</v>
       </c>
       <c r="C18">
-        <v>15.659854129735</v>
+        <v>10.23862907261272</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.362694650200625</v>
+        <v>14.3786345218622</v>
       </c>
       <c r="F18">
-        <v>32.2907776976434</v>
+        <v>38.94896543904503</v>
       </c>
       <c r="G18">
-        <v>38.25798076567953</v>
+        <v>38.52983136908085</v>
       </c>
       <c r="H18">
-        <v>11.20897223761998</v>
+        <v>16.28812488084781</v>
       </c>
       <c r="I18">
-        <v>16.70286133625765</v>
+        <v>24.9480272889157</v>
       </c>
       <c r="J18">
-        <v>4.640305607962621</v>
+        <v>7.858954749295574</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.54226951993712</v>
+        <v>12.91186393433484</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.18685996869506</v>
+        <v>17.85235147226679</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.95280215932084</v>
+        <v>19.73713780953115</v>
       </c>
       <c r="C19">
-        <v>15.59729516911866</v>
+        <v>10.2096079032654</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.359410519990613</v>
+        <v>14.37981819360222</v>
       </c>
       <c r="F19">
-        <v>32.20281087845947</v>
+        <v>38.94188556340865</v>
       </c>
       <c r="G19">
-        <v>38.12569433835218</v>
+        <v>38.51229702907379</v>
       </c>
       <c r="H19">
-        <v>11.19348691577621</v>
+        <v>16.28998556649112</v>
       </c>
       <c r="I19">
-        <v>16.68829587512192</v>
+        <v>24.9533167882335</v>
       </c>
       <c r="J19">
-        <v>4.644618692032736</v>
+        <v>7.860099488202554</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.518148227711436</v>
+        <v>12.90913946602977</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.2057751230455</v>
+        <v>17.85743873973174</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.49226387596249</v>
+        <v>19.92091063695239</v>
       </c>
       <c r="C20">
-        <v>15.87726595818307</v>
+        <v>10.33945457185841</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.374369088838048</v>
+        <v>14.37457467470682</v>
       </c>
       <c r="F20">
-        <v>32.5992679036928</v>
+        <v>38.97442018117984</v>
       </c>
       <c r="G20">
-        <v>38.72155229720015</v>
+        <v>38.59210717189964</v>
       </c>
       <c r="H20">
-        <v>11.26395957647866</v>
+        <v>16.28186107335978</v>
       </c>
       <c r="I20">
-        <v>16.75543598685256</v>
+        <v>24.92992551174522</v>
       </c>
       <c r="J20">
-        <v>4.62522391915769</v>
+        <v>7.854976111797218</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.626532931542103</v>
+        <v>12.92151509559679</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.12080145002254</v>
+        <v>17.83467022892114</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.24496842029849</v>
+        <v>20.52968904806928</v>
       </c>
       <c r="C21">
-        <v>16.79101420422186</v>
+        <v>10.76240506012894</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.42780897963816</v>
+        <v>14.35840936440977</v>
       </c>
       <c r="F21">
-        <v>33.94121254470876</v>
+        <v>39.09548203736428</v>
       </c>
       <c r="G21">
-        <v>40.73264626338317</v>
+        <v>38.87589687131374</v>
       </c>
       <c r="H21">
-        <v>11.51477527624182</v>
+        <v>16.25892572532261</v>
       </c>
       <c r="I21">
-        <v>17.00975736331555</v>
+        <v>24.85856674120441</v>
       </c>
       <c r="J21">
-        <v>4.560250057513443</v>
+        <v>7.838252082163004</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.987606848100423</v>
+        <v>12.965091106419</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.83774104945538</v>
+        <v>17.76034909655499</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.34660027627445</v>
+        <v>20.92043136185727</v>
       </c>
       <c r="C22">
-        <v>17.36846692115418</v>
+        <v>11.02872680139616</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.465153754639184</v>
+        <v>14.34892345301533</v>
       </c>
       <c r="F22">
-        <v>34.8250924131092</v>
+        <v>39.18329141794293</v>
       </c>
       <c r="G22">
-        <v>42.05327730243527</v>
+        <v>39.07279895099852</v>
       </c>
       <c r="H22">
-        <v>11.68948019552145</v>
+        <v>16.24719589353442</v>
       </c>
       <c r="I22">
-        <v>17.19840100977548</v>
+        <v>24.81734593902067</v>
       </c>
       <c r="J22">
-        <v>4.517843550092046</v>
+        <v>7.827685190615963</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.22105511446514</v>
+        <v>12.9950319811379</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.65440675878619</v>
+        <v>17.71339277592345</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.7626042142737</v>
+        <v>20.71257810353256</v>
       </c>
       <c r="C23">
-        <v>17.06205214819441</v>
+        <v>10.88752048926965</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.44499764483904</v>
+        <v>14.35388774191898</v>
       </c>
       <c r="F23">
-        <v>34.35275144112511</v>
+        <v>39.13563566536247</v>
       </c>
       <c r="G23">
-        <v>41.34787875758113</v>
+        <v>38.96667811820323</v>
       </c>
       <c r="H23">
-        <v>11.59522965408405</v>
+        <v>16.25315753051975</v>
       </c>
       <c r="I23">
-        <v>17.09560192467934</v>
+        <v>24.8388490534321</v>
       </c>
       <c r="J23">
-        <v>4.540477088536608</v>
+        <v>7.833291821698944</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.09670492646602</v>
+        <v>12.97891995658083</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.75211382762694</v>
+        <v>17.73830671629548</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.462865994928</v>
+        <v>19.9108495698174</v>
       </c>
       <c r="C24">
-        <v>15.86199329655737</v>
+        <v>10.33237362366282</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.373535785384446</v>
+        <v>14.37485715222175</v>
       </c>
       <c r="F24">
-        <v>32.57745749837694</v>
+        <v>38.97258916944946</v>
       </c>
       <c r="G24">
-        <v>38.68879460904549</v>
+        <v>38.58766500101427</v>
       </c>
       <c r="H24">
-        <v>11.26003756268735</v>
+        <v>16.28229084621921</v>
       </c>
       <c r="I24">
-        <v>16.75164345888197</v>
+        <v>24.93118290571291</v>
       </c>
       <c r="J24">
-        <v>4.626288069995078</v>
+        <v>7.855255615754304</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.620591900382868</v>
+        <v>12.92082791339311</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.12545822950094</v>
+        <v>17.83591235673286</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.78937414347507</v>
+        <v>19.01989955967448</v>
       </c>
       <c r="C25">
-        <v>14.48086291417784</v>
+        <v>9.691407384150132</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.306534362480098</v>
+        <v>14.40213001167409</v>
       </c>
       <c r="F25">
-        <v>30.6958276348759</v>
+        <v>38.83443934552366</v>
       </c>
       <c r="G25">
-        <v>35.85168192032062</v>
+        <v>38.229312910819</v>
       </c>
       <c r="H25">
-        <v>10.94268349103406</v>
+        <v>16.32765108481728</v>
       </c>
       <c r="I25">
-        <v>16.47031197535029</v>
+        <v>25.05386537291409</v>
       </c>
       <c r="J25">
-        <v>4.719621628357016</v>
+        <v>7.880518588303784</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.097789798451013</v>
+        <v>12.86460497485872</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.53630733102259</v>
+        <v>17.94817965195017</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_10/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.34672923810091</v>
+        <v>22.65010566458812</v>
       </c>
       <c r="C2">
-        <v>9.184794409951568</v>
+        <v>13.38772600124692</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.42623828828769</v>
+        <v>8.265542753587333</v>
       </c>
       <c r="F2">
-        <v>38.76547630129511</v>
+        <v>29.34460262093959</v>
       </c>
       <c r="G2">
-        <v>38.01008693309698</v>
+        <v>33.79708012223024</v>
       </c>
       <c r="H2">
-        <v>16.37295692481242</v>
+        <v>10.74456459984707</v>
       </c>
       <c r="I2">
-        <v>25.16386250524436</v>
+        <v>16.33261898803811</v>
       </c>
       <c r="J2">
-        <v>7.900487943053969</v>
+        <v>4.789536341096228</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.82890023916018</v>
+        <v>8.707075130173912</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.03691089615791</v>
+        <v>11.8469359024828</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.88285286626935</v>
+        <v>21.091528322919</v>
       </c>
       <c r="C3">
-        <v>8.820871057815937</v>
+        <v>12.5989611941688</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14.44510135219539</v>
+        <v>8.242808559292602</v>
       </c>
       <c r="F3">
-        <v>38.73927107487006</v>
+        <v>28.45380948287316</v>
       </c>
       <c r="G3">
-        <v>37.88981539016788</v>
+        <v>32.43183821901263</v>
       </c>
       <c r="H3">
-        <v>16.41104399871963</v>
+        <v>10.63112878732796</v>
       </c>
       <c r="I3">
-        <v>25.25057699658393</v>
+        <v>16.27858168148592</v>
       </c>
       <c r="J3">
-        <v>7.914883362388222</v>
+        <v>4.8378959161299</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.80832424424728</v>
+        <v>8.440045652034813</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.10086277752859</v>
+        <v>12.06305398339283</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.59537166305229</v>
+        <v>20.08023036982334</v>
       </c>
       <c r="C4">
-        <v>8.587701125750435</v>
+        <v>12.09103965547013</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14.45793278204563</v>
+        <v>8.231288039024735</v>
       </c>
       <c r="F4">
-        <v>38.73332471907418</v>
+        <v>27.92052819127847</v>
       </c>
       <c r="G4">
-        <v>37.83003543434909</v>
+        <v>31.60937802799087</v>
       </c>
       <c r="H4">
-        <v>16.43805492014402</v>
+        <v>10.57126850504175</v>
       </c>
       <c r="I4">
-        <v>25.30978788258752</v>
+        <v>16.2633892502772</v>
       </c>
       <c r="J4">
-        <v>7.924150144783411</v>
+        <v>4.868140527063851</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.79749856521316</v>
+        <v>8.275516938535981</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.14202311622726</v>
+        <v>12.1986831314761</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.47773128296563</v>
+        <v>19.67376408470869</v>
       </c>
       <c r="C5">
-        <v>8.490314984490217</v>
+        <v>11.87814442072359</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.46347649867637</v>
+        <v>8.22719918746342</v>
       </c>
       <c r="F5">
-        <v>38.7334535712024</v>
+        <v>27.70686594226247</v>
       </c>
       <c r="G5">
-        <v>37.80922410993161</v>
+        <v>31.2785952916105</v>
       </c>
       <c r="H5">
-        <v>16.4499711931204</v>
+        <v>10.54926046435499</v>
       </c>
       <c r="I5">
-        <v>25.33541227079636</v>
+        <v>16.26151182144487</v>
       </c>
       <c r="J5">
-        <v>7.928034422362884</v>
+        <v>4.880613637274898</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.79354487962372</v>
+        <v>8.208414462030603</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.15927388707626</v>
+        <v>12.25471391705469</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.45817301962876</v>
+        <v>19.60685532334964</v>
       </c>
       <c r="C6">
-        <v>8.474003541752536</v>
+        <v>11.84243733769277</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.46441606019939</v>
+        <v>8.226556614211148</v>
       </c>
       <c r="F6">
-        <v>38.73362910403995</v>
+        <v>27.6716145497814</v>
       </c>
       <c r="G6">
-        <v>37.80598303580231</v>
+        <v>31.22394560977838</v>
       </c>
       <c r="H6">
-        <v>16.45200471220204</v>
+        <v>10.54574780563252</v>
       </c>
       <c r="I6">
-        <v>25.33975734962036</v>
+        <v>16.26145444433048</v>
       </c>
       <c r="J6">
-        <v>7.928685937104138</v>
+        <v>4.882694003225125</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.79291611567097</v>
+        <v>8.197271470304178</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.16216725245175</v>
+        <v>12.26406441303921</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.5937868628477</v>
+        <v>20.07454282844632</v>
       </c>
       <c r="C7">
-        <v>8.58639721926459</v>
+        <v>12.08819236935918</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>14.45800627107965</v>
+        <v>8.231230451936057</v>
       </c>
       <c r="F7">
-        <v>38.7333161234881</v>
+        <v>27.91763158399586</v>
       </c>
       <c r="G7">
-        <v>37.82974038182216</v>
+        <v>31.60489870655689</v>
       </c>
       <c r="H7">
-        <v>16.4382119497246</v>
+        <v>10.57096214217702</v>
       </c>
       <c r="I7">
-        <v>25.31012741394937</v>
+        <v>16.26334674318648</v>
       </c>
       <c r="J7">
-        <v>7.924202091771967</v>
+        <v>4.868308131704804</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.79744338649918</v>
+        <v>8.274612075887672</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.14225383049313</v>
+        <v>12.19943567107979</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.1874415499258</v>
+        <v>22.12392693398336</v>
       </c>
       <c r="C8">
-        <v>9.061373681501353</v>
+        <v>13.12067072795642</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.43248333002601</v>
+        <v>8.257193534600528</v>
       </c>
       <c r="F8">
-        <v>38.75433675924572</v>
+        <v>29.03474902223327</v>
       </c>
       <c r="G8">
-        <v>37.96570657635471</v>
+        <v>33.3232971449888</v>
       </c>
       <c r="H8">
-        <v>16.38533545445738</v>
+        <v>10.70337566097686</v>
       </c>
       <c r="I8">
-        <v>25.19251995307339</v>
+        <v>16.31012874024024</v>
       </c>
       <c r="J8">
-        <v>7.905362895135101</v>
+        <v>4.806102133589436</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.82143237827346</v>
+        <v>8.615172864831253</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.05856934564001</v>
+        <v>11.92085938490403</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.3230638044944</v>
+        <v>25.7161603275547</v>
       </c>
       <c r="C9">
-        <v>9.912823498321565</v>
+        <v>14.95785246419588</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>14.39231914356174</v>
+        <v>8.327786861857943</v>
       </c>
       <c r="F9">
-        <v>38.8759045701733</v>
+        <v>31.32477279077723</v>
       </c>
       <c r="G9">
-        <v>38.34316495663327</v>
+        <v>36.80266645047992</v>
       </c>
       <c r="H9">
-        <v>16.3105161892921</v>
+        <v>11.04389283112049</v>
       </c>
       <c r="I9">
-        <v>25.00947168366596</v>
+        <v>16.55376516895971</v>
       </c>
       <c r="J9">
-        <v>7.871797275755632</v>
+        <v>4.688029821199732</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.88266953927435</v>
+        <v>9.274956416708163</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>17.90942362338756</v>
+        <v>11.39672373836352</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.13074574548422</v>
+        <v>28.10200172740889</v>
       </c>
       <c r="C10">
-        <v>10.48643288421343</v>
+        <v>16.19443702100764</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.36880047586209</v>
+        <v>8.392122718783883</v>
       </c>
       <c r="F10">
-        <v>39.01389354994728</v>
+        <v>33.05689995443547</v>
       </c>
       <c r="G10">
-        <v>38.68663156718811</v>
+        <v>39.40831864918286</v>
       </c>
       <c r="H10">
-        <v>16.27328345111251</v>
+        <v>11.34742606349066</v>
       </c>
       <c r="I10">
-        <v>24.90429606007138</v>
+        <v>16.83759498729143</v>
       </c>
       <c r="J10">
-        <v>7.849171228402042</v>
+        <v>4.602963099747127</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.93609646106281</v>
+        <v>9.750633150684672</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.80887314947211</v>
+        <v>11.02353753811368</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.4906432456987</v>
+        <v>29.13396739676904</v>
       </c>
       <c r="C11">
-        <v>10.73558376267644</v>
+        <v>16.73296212480966</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.35939389311689</v>
+        <v>8.424206196283919</v>
       </c>
       <c r="F11">
-        <v>39.08712947929475</v>
+        <v>33.85384802042926</v>
       </c>
       <c r="G11">
-        <v>38.85683666652152</v>
+        <v>40.60195754417137</v>
       </c>
       <c r="H11">
-        <v>16.26022208459126</v>
+        <v>11.49790098548633</v>
       </c>
       <c r="I11">
-        <v>24.86287552854487</v>
+        <v>16.99199113832516</v>
       </c>
       <c r="J11">
-        <v>7.839314567303017</v>
+        <v>4.564455102105995</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.96218171446583</v>
+        <v>9.964352959059168</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.76507063334423</v>
+        <v>10.85598281595469</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.62571465974166</v>
+        <v>29.51721320434306</v>
       </c>
       <c r="C12">
-        <v>10.82820104369992</v>
+        <v>16.93349782335063</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.35601700187968</v>
+        <v>8.436769662863103</v>
       </c>
       <c r="F12">
-        <v>39.11635421858168</v>
+        <v>34.15681325577419</v>
       </c>
       <c r="G12">
-        <v>38.92325439319618</v>
+        <v>41.05503790731812</v>
       </c>
       <c r="H12">
-        <v>16.25583516578131</v>
+        <v>11.55672740923985</v>
       </c>
       <c r="I12">
-        <v>24.84811932780274</v>
+        <v>17.05429057979366</v>
       </c>
       <c r="J12">
-        <v>7.835644408457503</v>
+        <v>4.549884317609481</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.97231078683247</v>
+        <v>10.04485195123063</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.74876105753753</v>
+        <v>10.79282113392487</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.59668059659154</v>
+        <v>29.43500729896103</v>
       </c>
       <c r="C13">
-        <v>10.80833174034816</v>
+        <v>16.89045864670241</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.35673605025593</v>
+        <v>8.434045324084932</v>
       </c>
       <c r="F13">
-        <v>39.10999402208147</v>
+        <v>34.09151330712829</v>
       </c>
       <c r="G13">
-        <v>38.90886349329988</v>
+        <v>40.95741224748984</v>
       </c>
       <c r="H13">
-        <v>16.25675507357304</v>
+        <v>11.54397504469681</v>
       </c>
       <c r="I13">
-        <v>24.85125595039596</v>
+        <v>17.04069971280243</v>
       </c>
       <c r="J13">
-        <v>7.836432075700718</v>
+        <v>4.553022161173146</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.97011822150435</v>
+        <v>10.02753494345266</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.75226129495696</v>
+        <v>10.8064118279742</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.50178070112714</v>
+        <v>29.16564749859642</v>
       </c>
       <c r="C14">
-        <v>10.74323831373444</v>
+        <v>16.74952791144175</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.3591123666899</v>
+        <v>8.425231445581678</v>
       </c>
       <c r="F14">
-        <v>39.08950399735516</v>
+        <v>33.87875006673957</v>
       </c>
       <c r="G14">
-        <v>38.86226177730907</v>
+        <v>40.6392116145577</v>
       </c>
       <c r="H14">
-        <v>16.25984995482953</v>
+        <v>11.50270334088853</v>
       </c>
       <c r="I14">
-        <v>24.86164288321837</v>
+        <v>16.99703861781828</v>
       </c>
       <c r="J14">
-        <v>7.839011373684655</v>
+        <v>4.563256223754316</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.96301003519895</v>
+        <v>9.970984563859449</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.76372328059404</v>
+        <v>10.85078087705335</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.44348993963275</v>
+        <v>28.99967950220009</v>
       </c>
       <c r="C15">
-        <v>10.70314035091275</v>
+        <v>16.66276401192728</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.36059202563849</v>
+        <v>8.419886906218608</v>
       </c>
       <c r="F15">
-        <v>39.07714713717675</v>
+        <v>33.74857709456311</v>
       </c>
       <c r="G15">
-        <v>38.83397140285779</v>
+        <v>40.44444225703008</v>
       </c>
       <c r="H15">
-        <v>16.26181852398735</v>
+        <v>11.47766532946993</v>
       </c>
       <c r="I15">
-        <v>24.86812629009869</v>
+        <v>16.97079988372744</v>
       </c>
       <c r="J15">
-        <v>7.840599376730157</v>
+        <v>4.569525864191518</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.95868862171899</v>
+        <v>9.936288273925122</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.77078017782339</v>
+        <v>10.87799475282294</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.10706268065329</v>
+        <v>28.03349795846126</v>
       </c>
       <c r="C16">
-        <v>10.46990991194482</v>
+        <v>16.15876492285519</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.36944116595553</v>
+        <v>8.390083432522417</v>
       </c>
       <c r="F16">
-        <v>39.0093169223475</v>
+        <v>33.00498785812865</v>
       </c>
       <c r="G16">
-        <v>38.67578563422786</v>
+        <v>39.3304668781672</v>
       </c>
       <c r="H16">
-        <v>16.27421519372913</v>
+        <v>11.33784694759634</v>
       </c>
       <c r="I16">
-        <v>24.90713269919253</v>
+        <v>16.82803055747019</v>
       </c>
       <c r="J16">
-        <v>7.849824128056643</v>
+        <v>4.605482176347858</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.93442714977913</v>
+        <v>9.73660802820222</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.81177464489421</v>
+        <v>11.03452954648235</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.89865138373856</v>
+        <v>27.42720292591895</v>
       </c>
       <c r="C17">
-        <v>10.32378433470521</v>
+        <v>15.84346818666598</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>14.37520033536476</v>
+        <v>8.372527694584498</v>
       </c>
       <c r="F17">
-        <v>38.97037689099187</v>
+        <v>32.55103053997752</v>
       </c>
       <c r="G17">
-        <v>38.58229044688179</v>
+        <v>38.64909977729483</v>
       </c>
       <c r="H17">
-        <v>16.28281421621353</v>
+        <v>11.25529232922139</v>
       </c>
       <c r="I17">
-        <v>24.93271095100502</v>
+        <v>16.74706343064648</v>
       </c>
       <c r="J17">
-        <v>7.855594639973345</v>
+        <v>4.627577886531768</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.91999624940104</v>
+        <v>9.613390037988848</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.83741899532503</v>
+        <v>11.13110340448321</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.77807801175672</v>
+        <v>27.07344629507677</v>
       </c>
       <c r="C18">
-        <v>10.23862907261272</v>
+        <v>15.65985412973515</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.3786345218622</v>
+        <v>8.362694650200842</v>
       </c>
       <c r="F18">
-        <v>38.94896543904503</v>
+        <v>32.29077769764348</v>
       </c>
       <c r="G18">
-        <v>38.52983136908085</v>
+        <v>38.25798076567953</v>
       </c>
       <c r="H18">
-        <v>16.28812488084781</v>
+        <v>11.20897223761995</v>
       </c>
       <c r="I18">
-        <v>24.9480272889157</v>
+        <v>16.70286133625766</v>
       </c>
       <c r="J18">
-        <v>7.858954749295574</v>
+        <v>4.640305607962519</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.91186393433484</v>
+        <v>9.542269519937159</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.85235147226679</v>
+        <v>11.18685996869506</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.73713780953115</v>
+        <v>26.95280215932084</v>
       </c>
       <c r="C19">
-        <v>10.2096079032654</v>
+        <v>15.59729516911862</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>14.37981819360222</v>
+        <v>8.359410519990677</v>
       </c>
       <c r="F19">
-        <v>38.94188556340865</v>
+        <v>32.20281087845949</v>
       </c>
       <c r="G19">
-        <v>38.51229702907379</v>
+        <v>38.12569433835223</v>
       </c>
       <c r="H19">
-        <v>16.28998556649112</v>
+        <v>11.19348691577622</v>
       </c>
       <c r="I19">
-        <v>24.9533167882335</v>
+        <v>16.68829587512198</v>
       </c>
       <c r="J19">
-        <v>7.860099488202554</v>
+        <v>4.644618692032801</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.90913946602977</v>
+        <v>9.518148227711476</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.85743873973174</v>
+        <v>11.2057751230455</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.92091063695239</v>
+        <v>27.49226387596254</v>
       </c>
       <c r="C20">
-        <v>10.33945457185841</v>
+        <v>15.87726595818299</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>14.37457467470682</v>
+        <v>8.37436908883806</v>
       </c>
       <c r="F20">
-        <v>38.97442018117984</v>
+        <v>32.59926790369276</v>
       </c>
       <c r="G20">
-        <v>38.59210717189964</v>
+        <v>38.7215522972002</v>
       </c>
       <c r="H20">
-        <v>16.28186107335978</v>
+        <v>11.26395957647854</v>
       </c>
       <c r="I20">
-        <v>24.92992551174522</v>
+        <v>16.75543598685245</v>
       </c>
       <c r="J20">
-        <v>7.854976111797218</v>
+        <v>4.625223919157588</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.92151509559679</v>
+        <v>9.626532931542112</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.83467022892114</v>
+        <v>11.12080145002234</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.52968904806928</v>
+        <v>29.24496842029846</v>
       </c>
       <c r="C21">
-        <v>10.76240506012894</v>
+        <v>16.7910142042218</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.35840936440977</v>
+        <v>8.427808979638387</v>
       </c>
       <c r="F21">
-        <v>39.09548203736428</v>
+        <v>33.94121254470885</v>
       </c>
       <c r="G21">
-        <v>38.87589687131374</v>
+        <v>40.73264626338319</v>
       </c>
       <c r="H21">
-        <v>16.25892572532261</v>
+        <v>11.51477527624186</v>
       </c>
       <c r="I21">
-        <v>24.85856674120441</v>
+        <v>17.00975736331564</v>
       </c>
       <c r="J21">
-        <v>7.838252082163004</v>
+        <v>4.56025005751348</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.965091106419</v>
+        <v>9.987606848100484</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.76034909655499</v>
+        <v>10.83774104945542</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.92043136185727</v>
+        <v>30.34660027627453</v>
       </c>
       <c r="C22">
-        <v>11.02872680139616</v>
+        <v>17.36846692115419</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.34892345301533</v>
+        <v>8.465153754639285</v>
       </c>
       <c r="F22">
-        <v>39.18329141794293</v>
+        <v>34.82509241310923</v>
       </c>
       <c r="G22">
-        <v>39.07279895099852</v>
+        <v>42.05327730243528</v>
       </c>
       <c r="H22">
-        <v>16.24719589353442</v>
+        <v>11.68948019552146</v>
       </c>
       <c r="I22">
-        <v>24.81734593902067</v>
+        <v>17.19840100977543</v>
       </c>
       <c r="J22">
-        <v>7.827685190615963</v>
+        <v>4.517843550091842</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.9950319811379</v>
+        <v>10.22105511446517</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.71339277592345</v>
+        <v>10.65440675878616</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.71257810353256</v>
+        <v>29.76260421427373</v>
       </c>
       <c r="C23">
-        <v>10.88752048926965</v>
+        <v>17.06205214819441</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.35388774191898</v>
+        <v>8.44499764483909</v>
       </c>
       <c r="F23">
-        <v>39.13563566536247</v>
+        <v>34.35275144112514</v>
       </c>
       <c r="G23">
-        <v>38.96667811820323</v>
+        <v>41.34787875758124</v>
       </c>
       <c r="H23">
-        <v>16.25315753051975</v>
+        <v>11.59522965408407</v>
       </c>
       <c r="I23">
-        <v>24.8388490534321</v>
+        <v>17.09560192467941</v>
       </c>
       <c r="J23">
-        <v>7.833291821698944</v>
+        <v>4.540477088536774</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.97891995658083</v>
+        <v>10.09670492646603</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.73830671629548</v>
+        <v>10.75211382762697</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.9108495698174</v>
+        <v>27.46286599492811</v>
       </c>
       <c r="C24">
-        <v>10.33237362366282</v>
+        <v>15.86199329655736</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>14.37485715222175</v>
+        <v>8.373535785384449</v>
       </c>
       <c r="F24">
-        <v>38.97258916944946</v>
+        <v>32.57745749837692</v>
       </c>
       <c r="G24">
-        <v>38.58766500101427</v>
+        <v>38.68879460904548</v>
       </c>
       <c r="H24">
-        <v>16.28229084621921</v>
+        <v>11.26003756268732</v>
       </c>
       <c r="I24">
-        <v>24.93118290571291</v>
+        <v>16.75164345888186</v>
       </c>
       <c r="J24">
-        <v>7.855255615754304</v>
+        <v>4.626288069994945</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.92082791339311</v>
+        <v>9.620591900382855</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.83591235673286</v>
+        <v>11.12545822950084</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.01989955967448</v>
+        <v>24.78937414347505</v>
       </c>
       <c r="C25">
-        <v>9.691407384150132</v>
+        <v>14.48086291417789</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>14.40213001167409</v>
+        <v>8.306534362480217</v>
       </c>
       <c r="F25">
-        <v>38.83443934552366</v>
+        <v>30.69582763487593</v>
       </c>
       <c r="G25">
-        <v>38.229312910819</v>
+        <v>35.85168192032058</v>
       </c>
       <c r="H25">
-        <v>16.32765108481728</v>
+        <v>10.94268349103403</v>
       </c>
       <c r="I25">
-        <v>25.05386537291409</v>
+        <v>16.47031197535027</v>
       </c>
       <c r="J25">
-        <v>7.880518588303784</v>
+        <v>4.719621628356951</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.86460497485872</v>
+        <v>9.097789798451043</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>17.94817965195017</v>
+        <v>11.53630733102259</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.65010566458812</v>
+        <v>16.69235456208976</v>
       </c>
       <c r="C2">
-        <v>13.38772600124692</v>
+        <v>12.76281077954839</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.265542753587333</v>
+        <v>18.30104121414738</v>
       </c>
       <c r="F2">
-        <v>29.34460262093959</v>
+        <v>30.17111575712957</v>
       </c>
       <c r="G2">
-        <v>33.79708012223024</v>
+        <v>17.9697605247644</v>
       </c>
       <c r="H2">
-        <v>10.74456459984707</v>
+        <v>1.585714229758171</v>
       </c>
       <c r="I2">
-        <v>16.33261898803811</v>
+        <v>3.285409790527129</v>
       </c>
       <c r="J2">
-        <v>4.789536341096228</v>
+        <v>7.581422786880662</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.17668682021017</v>
       </c>
       <c r="L2">
-        <v>8.707075130173912</v>
+        <v>5.101234045684445</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.8469359024828</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>17.49629606304185</v>
+      </c>
+      <c r="P2">
+        <v>12.15061972021272</v>
+      </c>
+      <c r="Q2">
+        <v>11.94122006350237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.091528322919</v>
+        <v>15.65237155966408</v>
       </c>
       <c r="C3">
-        <v>12.5989611941688</v>
+        <v>12.14743812652588</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>8.242808559292602</v>
+        <v>17.60085207429135</v>
       </c>
       <c r="F3">
-        <v>28.45380948287316</v>
+        <v>29.07624405527395</v>
       </c>
       <c r="G3">
-        <v>32.43183821901263</v>
+        <v>17.40525020543995</v>
       </c>
       <c r="H3">
-        <v>10.63112878732796</v>
+        <v>1.762114153140501</v>
       </c>
       <c r="I3">
-        <v>16.27858168148592</v>
+        <v>3.164908798606831</v>
       </c>
       <c r="J3">
-        <v>4.8378959161299</v>
+        <v>7.585136171460598</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>11.30621961692832</v>
       </c>
       <c r="L3">
-        <v>8.440045652034813</v>
+        <v>5.042355159979402</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.06305398339283</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16.55065651923016</v>
+      </c>
+      <c r="P3">
+        <v>12.1855467844086</v>
+      </c>
+      <c r="Q3">
+        <v>11.83135997109177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.08023036982334</v>
+        <v>14.97389409220044</v>
       </c>
       <c r="C4">
-        <v>12.09103965547013</v>
+        <v>11.75535609032012</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.231288039024735</v>
+        <v>17.15760041340111</v>
       </c>
       <c r="F4">
-        <v>27.92052819127847</v>
+        <v>28.39077540212844</v>
       </c>
       <c r="G4">
-        <v>31.60937802799087</v>
+        <v>17.0599741723642</v>
       </c>
       <c r="H4">
-        <v>10.57126850504175</v>
+        <v>1.906907060379673</v>
       </c>
       <c r="I4">
-        <v>16.2633892502772</v>
+        <v>3.08873356467554</v>
       </c>
       <c r="J4">
-        <v>4.868140527063851</v>
+        <v>7.59022437249563</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>11.38975383884768</v>
       </c>
       <c r="L4">
-        <v>8.275516938535981</v>
+        <v>5.004698516619477</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.1986831314761</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>15.94272561256777</v>
+      </c>
+      <c r="P4">
+        <v>12.20968782344771</v>
+      </c>
+      <c r="Q4">
+        <v>11.76913255123675</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.67376408470869</v>
+        <v>14.68240801592281</v>
       </c>
       <c r="C5">
-        <v>11.87814442072359</v>
+        <v>11.60006201580981</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.22719918746342</v>
+        <v>16.97588539783282</v>
       </c>
       <c r="F5">
-        <v>27.70686594226247</v>
+        <v>28.10465156761097</v>
       </c>
       <c r="G5">
-        <v>31.2785952916105</v>
+        <v>16.90863495196717</v>
       </c>
       <c r="H5">
-        <v>10.54926046435499</v>
+        <v>1.967346004541927</v>
       </c>
       <c r="I5">
-        <v>16.26151182144487</v>
+        <v>3.057498414527816</v>
       </c>
       <c r="J5">
-        <v>4.880613637274898</v>
+        <v>7.591348071677021</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>11.421217341631</v>
       </c>
       <c r="L5">
-        <v>8.208414462030603</v>
+        <v>4.988928571084449</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.25471391705469</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>15.68972230377144</v>
+      </c>
+      <c r="P5">
+        <v>12.22114683428361</v>
+      </c>
+      <c r="Q5">
+        <v>11.74072240325078</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.60685532334964</v>
+        <v>14.62730897506649</v>
       </c>
       <c r="C6">
-        <v>11.84243733769277</v>
+        <v>11.58380519498296</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.226556614211148</v>
+        <v>16.94808564677951</v>
       </c>
       <c r="F6">
-        <v>27.6716145497814</v>
+        <v>28.0522846577158</v>
       </c>
       <c r="G6">
-        <v>31.22394560977838</v>
+        <v>16.86988513821426</v>
       </c>
       <c r="H6">
-        <v>10.54574780563252</v>
+        <v>1.97759235641556</v>
       </c>
       <c r="I6">
-        <v>16.26145444433048</v>
+        <v>3.052905650383788</v>
       </c>
       <c r="J6">
-        <v>4.882694003225125</v>
+        <v>7.589573212955679</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>11.4221592895324</v>
       </c>
       <c r="L6">
-        <v>8.197271470304178</v>
+        <v>4.986235022860407</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.26406441303921</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>15.64905085621696</v>
+      </c>
+      <c r="P6">
+        <v>12.22426724159228</v>
+      </c>
+      <c r="Q6">
+        <v>11.73076302113804</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.07454282844632</v>
+        <v>14.95373455276898</v>
       </c>
       <c r="C7">
-        <v>12.08819236935918</v>
+        <v>11.77945159896994</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.231230451936057</v>
+        <v>17.16206745898918</v>
       </c>
       <c r="F7">
-        <v>27.91763158399586</v>
+        <v>28.37429530815988</v>
       </c>
       <c r="G7">
-        <v>31.60489870655689</v>
+        <v>17.0210132783267</v>
       </c>
       <c r="H7">
-        <v>10.57096214217702</v>
+        <v>1.908064264083098</v>
       </c>
       <c r="I7">
-        <v>16.26334674318648</v>
+        <v>3.089747761635963</v>
       </c>
       <c r="J7">
-        <v>4.868308131704804</v>
+        <v>7.584774399161868</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>11.37829945586428</v>
       </c>
       <c r="L7">
-        <v>8.274612075887672</v>
+        <v>5.0043551738346</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.19943567107979</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>15.94398525346432</v>
+      </c>
+      <c r="P7">
+        <v>12.21311981651289</v>
+      </c>
+      <c r="Q7">
+        <v>11.75426262144346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.12392693398336</v>
+        <v>16.32211338729999</v>
       </c>
       <c r="C8">
-        <v>13.12067072795642</v>
+        <v>12.58647631214443</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.257193534600528</v>
+        <v>18.07122699598837</v>
       </c>
       <c r="F8">
-        <v>29.03474902223327</v>
+        <v>29.78062631731031</v>
       </c>
       <c r="G8">
-        <v>33.3232971449888</v>
+        <v>17.72796550421231</v>
       </c>
       <c r="H8">
-        <v>10.70337566097686</v>
+        <v>1.612529292274031</v>
       </c>
       <c r="I8">
-        <v>16.31012874024024</v>
+        <v>3.245888589007195</v>
       </c>
       <c r="J8">
-        <v>4.806102133589436</v>
+        <v>7.574915715487372</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>11.2047192904929</v>
       </c>
       <c r="L8">
-        <v>8.615172864831253</v>
+        <v>5.08110599782036</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.92085938490403</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>17.1817195583656</v>
+      </c>
+      <c r="P8">
+        <v>12.16670691570812</v>
+      </c>
+      <c r="Q8">
+        <v>11.8833385538167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.7161603275547</v>
+        <v>18.71447089964025</v>
       </c>
       <c r="C9">
-        <v>14.95785246419588</v>
+        <v>14.00872427316247</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.327786861857943</v>
+        <v>19.7300542103641</v>
       </c>
       <c r="F9">
-        <v>31.32477279077723</v>
+        <v>32.44051825193549</v>
       </c>
       <c r="G9">
-        <v>36.80266645047992</v>
+        <v>19.17961122900698</v>
       </c>
       <c r="H9">
-        <v>11.04389283112049</v>
+        <v>2.0363316149229</v>
       </c>
       <c r="I9">
-        <v>16.55376516895971</v>
+        <v>3.533409852355552</v>
       </c>
       <c r="J9">
-        <v>4.688029821199732</v>
+        <v>7.588437931792629</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>10.91888301120428</v>
       </c>
       <c r="L9">
-        <v>9.274956416708163</v>
+        <v>5.219999306947336</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.39672373836352</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>19.37865475659001</v>
+      </c>
+      <c r="P9">
+        <v>12.09143476398497</v>
+      </c>
+      <c r="Q9">
+        <v>12.20406401792133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.10200172740889</v>
+        <v>20.27617639346191</v>
       </c>
       <c r="C10">
-        <v>16.19443702100764</v>
+        <v>14.979925826929</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.392122718783883</v>
+        <v>20.56678477973301</v>
       </c>
       <c r="F10">
-        <v>33.05689995443547</v>
+        <v>33.99979655445352</v>
       </c>
       <c r="G10">
-        <v>39.40831864918286</v>
+        <v>20.11599861311231</v>
       </c>
       <c r="H10">
-        <v>11.34742606349066</v>
+        <v>2.38353377898683</v>
       </c>
       <c r="I10">
-        <v>16.83759498729143</v>
+        <v>3.733062605113858</v>
       </c>
       <c r="J10">
-        <v>4.602963099747127</v>
+        <v>7.594057285433127</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>10.70084409885226</v>
       </c>
       <c r="L10">
-        <v>9.750633150684672</v>
+        <v>5.319997820779299</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.02353753811368</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>20.67879848709604</v>
+      </c>
+      <c r="P10">
+        <v>12.06804984639409</v>
+      </c>
+      <c r="Q10">
+        <v>12.41475825218443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.13396739676904</v>
+        <v>20.95624452583159</v>
       </c>
       <c r="C11">
-        <v>16.73296212480966</v>
+        <v>15.35897910316061</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.424206196283919</v>
+        <v>18.34034908285293</v>
       </c>
       <c r="F11">
-        <v>33.85384802042926</v>
+        <v>32.08890735028231</v>
       </c>
       <c r="G11">
-        <v>40.60195754417137</v>
+        <v>19.57496474007678</v>
       </c>
       <c r="H11">
-        <v>11.49790098548633</v>
+        <v>3.134441801550684</v>
       </c>
       <c r="I11">
-        <v>16.99199113832516</v>
+        <v>3.801743984012641</v>
       </c>
       <c r="J11">
-        <v>4.564455102105995</v>
+        <v>7.44286469228572</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>10.3755539701717</v>
       </c>
       <c r="L11">
-        <v>9.964352959059168</v>
+        <v>5.459461008263109</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.85598281595469</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>19.75472576608971</v>
+      </c>
+      <c r="P11">
+        <v>12.21004751279008</v>
+      </c>
+      <c r="Q11">
+        <v>12.10641378310688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.51721320434306</v>
+        <v>21.23399724038581</v>
       </c>
       <c r="C12">
-        <v>16.93349782335063</v>
+        <v>15.44645095358921</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.436769662863103</v>
+        <v>16.35505186814849</v>
       </c>
       <c r="F12">
-        <v>34.15681325577419</v>
+        <v>30.14510381605206</v>
       </c>
       <c r="G12">
-        <v>41.05503790731812</v>
+        <v>18.95502865369361</v>
       </c>
       <c r="H12">
-        <v>11.55672740923985</v>
+        <v>4.30820658155504</v>
       </c>
       <c r="I12">
-        <v>17.05429057979366</v>
+        <v>3.816880802886191</v>
       </c>
       <c r="J12">
-        <v>4.549884317609481</v>
+        <v>7.318003388545538</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>10.16397101108918</v>
       </c>
       <c r="L12">
-        <v>10.04485195123063</v>
+        <v>5.623095904729087</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.79282113392487</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>18.6861829046735</v>
+      </c>
+      <c r="P12">
+        <v>12.33615737318845</v>
+      </c>
+      <c r="Q12">
+        <v>11.81326024597538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.43500729896103</v>
+        <v>21.20952425243082</v>
       </c>
       <c r="C13">
-        <v>16.89045864670241</v>
+        <v>15.35031015074744</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.434045324084932</v>
+        <v>14.44864356263064</v>
       </c>
       <c r="F13">
-        <v>34.09151330712829</v>
+        <v>28.00317934105376</v>
       </c>
       <c r="G13">
-        <v>40.95741224748984</v>
+        <v>18.16938195804448</v>
       </c>
       <c r="H13">
-        <v>11.54397504469681</v>
+        <v>5.58321217495747</v>
       </c>
       <c r="I13">
-        <v>17.04069971280243</v>
+        <v>3.794591465336295</v>
       </c>
       <c r="J13">
-        <v>4.553022161173146</v>
+        <v>7.196850879032733</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>10.00922086977902</v>
       </c>
       <c r="L13">
-        <v>10.02753494345266</v>
+        <v>5.807890242834142</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.8064118279742</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>17.41671476129234</v>
+      </c>
+      <c r="P13">
+        <v>12.45948141135905</v>
+      </c>
+      <c r="Q13">
+        <v>11.48883901687635</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.16564749859642</v>
+        <v>21.05178408780321</v>
       </c>
       <c r="C14">
-        <v>16.74952791144175</v>
+        <v>15.20542808095107</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.425231445581678</v>
+        <v>13.19474303744673</v>
       </c>
       <c r="F14">
-        <v>33.87875006673957</v>
+        <v>26.39804765136629</v>
       </c>
       <c r="G14">
-        <v>40.6392116145577</v>
+        <v>17.5273854750304</v>
       </c>
       <c r="H14">
-        <v>11.50270334088853</v>
+        <v>6.509932243067021</v>
       </c>
       <c r="I14">
-        <v>16.99703861781828</v>
+        <v>3.762869842843681</v>
       </c>
       <c r="J14">
-        <v>4.563256223754316</v>
+        <v>7.112498473749095</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>9.925331121300337</v>
       </c>
       <c r="L14">
-        <v>9.970984563859449</v>
+        <v>5.95152625941596</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.85078087705335</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>16.42166016611247</v>
+      </c>
+      <c r="P14">
+        <v>12.54544991740273</v>
+      </c>
+      <c r="Q14">
+        <v>11.24317650667753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.99967950220009</v>
+        <v>20.94293419746797</v>
       </c>
       <c r="C15">
-        <v>16.66276401192728</v>
+        <v>15.13899085823835</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.419886906218608</v>
+        <v>12.89979142960305</v>
       </c>
       <c r="F15">
-        <v>33.74857709456311</v>
+        <v>25.96121679247226</v>
       </c>
       <c r="G15">
-        <v>40.44444225703008</v>
+        <v>17.32362367355323</v>
       </c>
       <c r="H15">
-        <v>11.47766532946993</v>
+        <v>6.721139780556385</v>
       </c>
       <c r="I15">
-        <v>16.97079988372744</v>
+        <v>3.747900306271349</v>
       </c>
       <c r="J15">
-        <v>4.569525864191518</v>
+        <v>7.091497235111522</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>9.913746677656825</v>
       </c>
       <c r="L15">
-        <v>9.936288273925122</v>
+        <v>5.982696950907016</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.87799475282294</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>16.13574691561543</v>
+      </c>
+      <c r="P15">
+        <v>12.5663284862745</v>
+      </c>
+      <c r="Q15">
+        <v>11.17286060319054</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.03349795846126</v>
+        <v>20.30367545065694</v>
       </c>
       <c r="C16">
-        <v>16.15876492285519</v>
+        <v>14.76697014624147</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.390083432522417</v>
+        <v>12.85971656735536</v>
       </c>
       <c r="F16">
-        <v>33.00498785812865</v>
+        <v>25.63246376919622</v>
       </c>
       <c r="G16">
-        <v>39.3304668781672</v>
+        <v>17.01649707953879</v>
       </c>
       <c r="H16">
-        <v>11.33784694759634</v>
+        <v>6.451380261817498</v>
       </c>
       <c r="I16">
-        <v>16.82803055747019</v>
+        <v>3.669059036870032</v>
       </c>
       <c r="J16">
-        <v>4.605482176347858</v>
+        <v>7.108779779190185</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>10.03335431436254</v>
       </c>
       <c r="L16">
-        <v>9.73660802820222</v>
+        <v>5.899901062038823</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.03452954648235</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>15.76689263306367</v>
+      </c>
+      <c r="P16">
+        <v>12.54281842211962</v>
+      </c>
+      <c r="Q16">
+        <v>11.13081881073147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.42720292591895</v>
+        <v>19.88908416280534</v>
       </c>
       <c r="C17">
-        <v>15.84346818666598</v>
+        <v>14.55761477995531</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.372527694584498</v>
+        <v>13.48175040501936</v>
       </c>
       <c r="F17">
-        <v>32.55103053997752</v>
+        <v>26.25605039297477</v>
       </c>
       <c r="G17">
-        <v>38.64909977729483</v>
+        <v>17.13478216053063</v>
       </c>
       <c r="H17">
-        <v>11.25529232922139</v>
+        <v>5.702324882422438</v>
       </c>
       <c r="I17">
-        <v>16.74706343064648</v>
+        <v>3.625369926235679</v>
       </c>
       <c r="J17">
-        <v>4.627577886531768</v>
+        <v>7.167323159668901</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>10.1684990388347</v>
       </c>
       <c r="L17">
-        <v>9.613390037988848</v>
+        <v>5.754398603352522</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.13110340448321</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>16.03445029434708</v>
+      </c>
+      <c r="P17">
+        <v>12.48076610352222</v>
+      </c>
+      <c r="Q17">
+        <v>11.23163448201894</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.07344629507677</v>
+        <v>19.64201158980516</v>
       </c>
       <c r="C18">
-        <v>15.65985412973515</v>
+        <v>14.44998825589665</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.362694650200842</v>
+        <v>14.85924357508913</v>
       </c>
       <c r="F18">
-        <v>32.29077769764348</v>
+        <v>27.78389544948914</v>
       </c>
       <c r="G18">
-        <v>38.25798076567953</v>
+        <v>17.65383563695257</v>
       </c>
       <c r="H18">
-        <v>11.20897223761995</v>
+        <v>4.493929611337617</v>
       </c>
       <c r="I18">
-        <v>16.70286133625766</v>
+        <v>3.60549233108045</v>
       </c>
       <c r="J18">
-        <v>4.640305607962519</v>
+        <v>7.270323537657744</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>10.34094449684813</v>
       </c>
       <c r="L18">
-        <v>9.542269519937159</v>
+        <v>5.564157677178163</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.18685996869506</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>16.88081947191202</v>
+      </c>
+      <c r="P18">
+        <v>12.37700529719951</v>
+      </c>
+      <c r="Q18">
+        <v>11.47358346053207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.95280215932084</v>
+        <v>19.52809986957705</v>
       </c>
       <c r="C19">
-        <v>15.59729516911862</v>
+        <v>14.47605266274669</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.359410519990677</v>
+        <v>16.87007845649797</v>
       </c>
       <c r="F19">
-        <v>32.20281087845949</v>
+        <v>29.90138091546969</v>
       </c>
       <c r="G19">
-        <v>38.12569433835223</v>
+        <v>18.3850139180456</v>
       </c>
       <c r="H19">
-        <v>11.19348691577622</v>
+        <v>3.161502480370092</v>
       </c>
       <c r="I19">
-        <v>16.68829587512198</v>
+        <v>3.61328344535644</v>
       </c>
       <c r="J19">
-        <v>4.644618692032801</v>
+        <v>7.390847695725918</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>10.51362645411696</v>
       </c>
       <c r="L19">
-        <v>9.518148227711476</v>
+        <v>5.396343489161047</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.2057751230455</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>18.12252911264656</v>
+      </c>
+      <c r="P19">
+        <v>12.25962059362911</v>
+      </c>
+      <c r="Q19">
+        <v>11.78293258740284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.49226387596254</v>
+        <v>19.83972996659118</v>
       </c>
       <c r="C20">
-        <v>15.87726595818299</v>
+        <v>14.7975668617213</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.37436908883806</v>
+        <v>20.3550132388978</v>
       </c>
       <c r="F20">
-        <v>32.59926790369276</v>
+        <v>33.54870581086946</v>
       </c>
       <c r="G20">
-        <v>38.7215522972002</v>
+        <v>19.7667684309818</v>
       </c>
       <c r="H20">
-        <v>11.26395957647854</v>
+        <v>2.290923219931014</v>
       </c>
       <c r="I20">
-        <v>16.75543598685245</v>
+        <v>3.68765406420096</v>
       </c>
       <c r="J20">
-        <v>4.625223919157588</v>
+        <v>7.574118381072739</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>10.71798104755059</v>
       </c>
       <c r="L20">
-        <v>9.626532931542112</v>
+        <v>5.294203208266361</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.12080145002234</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>20.34920637568971</v>
+      </c>
+      <c r="P20">
+        <v>12.0860088238162</v>
+      </c>
+      <c r="Q20">
+        <v>12.31309963560526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.24496842029846</v>
+        <v>20.98251720753784</v>
       </c>
       <c r="C21">
-        <v>16.7910142042218</v>
+        <v>15.51505737381776</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.427808979638387</v>
+        <v>21.44744334763319</v>
       </c>
       <c r="F21">
-        <v>33.94121254470885</v>
+        <v>35.18896573363784</v>
       </c>
       <c r="G21">
-        <v>40.73264626338319</v>
+        <v>20.67024201549107</v>
       </c>
       <c r="H21">
-        <v>11.51477527624186</v>
+        <v>2.577373502069833</v>
       </c>
       <c r="I21">
-        <v>17.00975736331564</v>
+        <v>3.841221513358768</v>
       </c>
       <c r="J21">
-        <v>4.56025005751348</v>
+        <v>7.613531723923765</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>10.60413538084185</v>
       </c>
       <c r="L21">
-        <v>9.987606848100484</v>
+        <v>5.361303886479826</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.83774104945542</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>21.56850943247393</v>
+      </c>
+      <c r="P21">
+        <v>12.04686119705984</v>
+      </c>
+      <c r="Q21">
+        <v>12.56217633467073</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.34660027627453</v>
+        <v>21.71130968943587</v>
       </c>
       <c r="C22">
-        <v>17.36846692115419</v>
+        <v>15.93875539964016</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.465153754639285</v>
+        <v>21.97959471510584</v>
       </c>
       <c r="F22">
-        <v>34.82509241310923</v>
+        <v>36.0991889144637</v>
       </c>
       <c r="G22">
-        <v>42.05327730243528</v>
+        <v>21.24050894287097</v>
       </c>
       <c r="H22">
-        <v>11.68948019552146</v>
+        <v>2.751774417046916</v>
       </c>
       <c r="I22">
-        <v>17.19840100977543</v>
+        <v>3.935885841188225</v>
       </c>
       <c r="J22">
-        <v>4.517843550091842</v>
+        <v>7.640622089073632</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>10.53799598724896</v>
       </c>
       <c r="L22">
-        <v>10.22105511446517</v>
+        <v>5.406488689612906</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.65440675878616</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>22.2444149444835</v>
+      </c>
+      <c r="P22">
+        <v>12.02678477581485</v>
+      </c>
+      <c r="Q22">
+        <v>12.72416767381803</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.76260421427373</v>
+        <v>21.33957570144122</v>
       </c>
       <c r="C23">
-        <v>17.06205214819441</v>
+        <v>15.68954174873536</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.44499764483909</v>
+        <v>21.6903358245647</v>
       </c>
       <c r="F23">
-        <v>34.35275144112514</v>
+        <v>35.62717157083664</v>
       </c>
       <c r="G23">
-        <v>41.34787875758124</v>
+        <v>20.97222398713004</v>
       </c>
       <c r="H23">
-        <v>11.59522965408407</v>
+        <v>2.659342136067683</v>
       </c>
       <c r="I23">
-        <v>17.09560192467941</v>
+        <v>3.882908354481161</v>
       </c>
       <c r="J23">
-        <v>4.540477088536774</v>
+        <v>7.632123954047076</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>10.58715538050411</v>
       </c>
       <c r="L23">
-        <v>10.09670492646603</v>
+        <v>5.382524161688177</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.75211382762697</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>21.88210422888972</v>
+      </c>
+      <c r="P23">
+        <v>12.03244141743508</v>
+      </c>
+      <c r="Q23">
+        <v>12.65299521226122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.46286599492811</v>
+        <v>19.84060205422569</v>
       </c>
       <c r="C24">
-        <v>15.86199329655736</v>
+        <v>14.75367670909659</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.373535785384449</v>
+        <v>20.57398824297358</v>
       </c>
       <c r="F24">
-        <v>32.57745749837692</v>
+        <v>33.78156739039167</v>
       </c>
       <c r="G24">
-        <v>38.68879460904548</v>
+        <v>19.89430466027224</v>
       </c>
       <c r="H24">
-        <v>11.26003756268732</v>
+        <v>2.301095660832635</v>
       </c>
       <c r="I24">
-        <v>16.75164345888186</v>
+        <v>3.682941793053754</v>
       </c>
       <c r="J24">
-        <v>4.626288069994945</v>
+        <v>7.596634234451044</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>10.76098629646311</v>
       </c>
       <c r="L24">
-        <v>9.620591900382855</v>
+        <v>5.289317796145752</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.12545822950084</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>20.46202346137023</v>
+      </c>
+      <c r="P24">
+        <v>12.06735678663978</v>
+      </c>
+      <c r="Q24">
+        <v>12.36923334840388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.78937414347505</v>
+        <v>18.07652384977063</v>
       </c>
       <c r="C25">
-        <v>14.48086291417789</v>
+        <v>13.67867015626741</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.306534362480217</v>
+        <v>19.3054142819057</v>
       </c>
       <c r="F25">
-        <v>30.69582763487593</v>
+        <v>31.71520081438695</v>
       </c>
       <c r="G25">
-        <v>35.85168192032058</v>
+        <v>18.7271826700854</v>
       </c>
       <c r="H25">
-        <v>10.94268349103403</v>
+        <v>1.897513156695049</v>
       </c>
       <c r="I25">
-        <v>16.47031197535027</v>
+        <v>3.460438041422793</v>
       </c>
       <c r="J25">
-        <v>4.719621628356951</v>
+        <v>7.572431798712417</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>10.97076429990265</v>
       </c>
       <c r="L25">
-        <v>9.097789798451043</v>
+        <v>5.183533541409571</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.53630733102259</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>18.8160034498792</v>
+      </c>
+      <c r="P25">
+        <v>12.11608758964579</v>
+      </c>
+      <c r="Q25">
+        <v>12.08745811356631</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_10/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_10/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.69235456208976</v>
+        <v>16.53514430432485</v>
       </c>
       <c r="C2">
-        <v>12.76281077954839</v>
+        <v>12.89438735431911</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>18.30104121414738</v>
+        <v>18.32220986198289</v>
       </c>
       <c r="F2">
-        <v>30.17111575712957</v>
+        <v>30.05743302637519</v>
       </c>
       <c r="G2">
-        <v>17.9697605247644</v>
+        <v>16.97887856806661</v>
       </c>
       <c r="H2">
-        <v>1.585714229758171</v>
+        <v>1.571453127657473</v>
       </c>
       <c r="I2">
-        <v>3.285409790527129</v>
+        <v>3.271357746698728</v>
       </c>
       <c r="J2">
-        <v>7.581422786880662</v>
+        <v>8.214269239658563</v>
       </c>
       <c r="K2">
-        <v>11.17668682021017</v>
+        <v>11.06361687379668</v>
       </c>
       <c r="L2">
-        <v>5.101234045684445</v>
+        <v>10.40447787474803</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.969564842862998</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.106218842182685</v>
       </c>
       <c r="O2">
-        <v>17.49629606304185</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.15061972021272</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>11.94122006350237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>17.54376061669359</v>
+      </c>
+      <c r="R2">
+        <v>12.19193853195279</v>
+      </c>
+      <c r="S2">
+        <v>11.85570933869697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.65237155966408</v>
+        <v>15.5385608084994</v>
       </c>
       <c r="C3">
-        <v>12.14743812652588</v>
+        <v>12.20265184863845</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>17.60085207429135</v>
+        <v>17.6148357959493</v>
       </c>
       <c r="F3">
-        <v>29.07624405527395</v>
+        <v>28.99001401446034</v>
       </c>
       <c r="G3">
-        <v>17.40525020543995</v>
+        <v>16.45687475310437</v>
       </c>
       <c r="H3">
-        <v>1.762114153140501</v>
+        <v>1.772288363938743</v>
       </c>
       <c r="I3">
-        <v>3.164908798606831</v>
+        <v>3.164083071010229</v>
       </c>
       <c r="J3">
-        <v>7.585136171460598</v>
+        <v>8.202929072155307</v>
       </c>
       <c r="K3">
-        <v>11.30621961692832</v>
+        <v>11.20187941762083</v>
       </c>
       <c r="L3">
-        <v>5.042355159979402</v>
+        <v>10.57901792743554</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>6.020476051369954</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.045515272145749</v>
       </c>
       <c r="O3">
-        <v>16.55065651923016</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.1855467844086</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>11.83135997109177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>16.59008061273112</v>
+      </c>
+      <c r="R3">
+        <v>12.20778840429567</v>
+      </c>
+      <c r="S3">
+        <v>11.7701000850755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.97389409220044</v>
+        <v>14.88837793655304</v>
       </c>
       <c r="C4">
-        <v>11.75535609032012</v>
+        <v>11.76131649215435</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>17.15760041340111</v>
+        <v>17.16757860378431</v>
       </c>
       <c r="F4">
-        <v>28.39077540212844</v>
+        <v>28.32152682695217</v>
       </c>
       <c r="G4">
-        <v>17.0599741723642</v>
+        <v>16.13827564625507</v>
       </c>
       <c r="H4">
-        <v>1.906907060379673</v>
+        <v>1.914280031467653</v>
       </c>
       <c r="I4">
-        <v>3.08873356467554</v>
+        <v>3.096388930207969</v>
       </c>
       <c r="J4">
-        <v>7.59022437249563</v>
+        <v>8.196975671459626</v>
       </c>
       <c r="K4">
-        <v>11.38975383884768</v>
+        <v>11.28958508935986</v>
       </c>
       <c r="L4">
-        <v>5.004698516619477</v>
+        <v>10.69080154943494</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6.074177406250779</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.006741885590755</v>
       </c>
       <c r="O4">
-        <v>15.94272561256777</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.20968782344771</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>11.76913255123675</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>15.97694652982464</v>
+      </c>
+      <c r="R4">
+        <v>12.220506010627</v>
+      </c>
+      <c r="S4">
+        <v>11.72159590128613</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.68240801592281</v>
+        <v>14.60883799529263</v>
       </c>
       <c r="C5">
-        <v>11.60006201580981</v>
+        <v>11.58562596013646</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>16.97588539783282</v>
+        <v>16.98437412002587</v>
       </c>
       <c r="F5">
-        <v>28.10465156761097</v>
+        <v>28.04232083890355</v>
       </c>
       <c r="G5">
-        <v>16.90863495196717</v>
+        <v>15.99754142614351</v>
       </c>
       <c r="H5">
-        <v>1.967346004541927</v>
+        <v>1.973554469092338</v>
       </c>
       <c r="I5">
-        <v>3.057498414527816</v>
+        <v>3.068946520586548</v>
       </c>
       <c r="J5">
-        <v>7.591348071677021</v>
+        <v>8.193201901438041</v>
       </c>
       <c r="K5">
-        <v>11.421217341631</v>
+        <v>11.3225382300311</v>
       </c>
       <c r="L5">
-        <v>4.988928571084449</v>
+        <v>10.73404964897065</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>6.100004221449018</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>4.990520501511438</v>
       </c>
       <c r="O5">
-        <v>15.68972230377144</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.22114683428361</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>11.74072240325078</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>15.72176783629146</v>
+      </c>
+      <c r="R5">
+        <v>12.22741454913709</v>
+      </c>
+      <c r="S5">
+        <v>11.69849602072193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.62730897506649</v>
+        <v>14.55574270328012</v>
       </c>
       <c r="C6">
-        <v>11.58380519498296</v>
+        <v>11.56624382405878</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>16.94808564677951</v>
+        <v>16.95636771055726</v>
       </c>
       <c r="F6">
-        <v>28.0522846577158</v>
+        <v>27.99108653711511</v>
       </c>
       <c r="G6">
-        <v>16.86988513821426</v>
+        <v>15.96011626026461</v>
       </c>
       <c r="H6">
-        <v>1.97759235641556</v>
+        <v>1.983602190087584</v>
       </c>
       <c r="I6">
-        <v>3.052905650383788</v>
+        <v>3.065325709057894</v>
       </c>
       <c r="J6">
-        <v>7.589573212955679</v>
+        <v>8.190637252224215</v>
       </c>
       <c r="K6">
-        <v>11.4221592895324</v>
+        <v>11.32380465768894</v>
       </c>
       <c r="L6">
-        <v>4.986235022860407</v>
+        <v>10.7370786356049</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>6.102700334335317</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>4.98775509890741</v>
       </c>
       <c r="O6">
-        <v>15.64905085621696</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>12.22426724159228</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>11.73076302113804</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>15.68073901884486</v>
+      </c>
+      <c r="R6">
+        <v>12.22982238512724</v>
+      </c>
+      <c r="S6">
+        <v>11.68942237006821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.95373455276898</v>
+        <v>14.86283332399224</v>
       </c>
       <c r="C7">
-        <v>11.77945159896994</v>
+        <v>11.77729693005647</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>17.16206745898918</v>
+        <v>17.17854547637124</v>
       </c>
       <c r="F7">
-        <v>28.37429530815988</v>
+        <v>28.29780773139047</v>
       </c>
       <c r="G7">
-        <v>17.0210132783267</v>
+        <v>16.19458577827672</v>
       </c>
       <c r="H7">
-        <v>1.908064264083098</v>
+        <v>1.915697770823459</v>
       </c>
       <c r="I7">
-        <v>3.089747761635963</v>
+        <v>3.097834234276646</v>
       </c>
       <c r="J7">
-        <v>7.584774399161868</v>
+        <v>8.155617476842137</v>
       </c>
       <c r="K7">
-        <v>11.37829945586428</v>
+        <v>11.27454453308105</v>
       </c>
       <c r="L7">
-        <v>5.0043551738346</v>
+        <v>10.67637108046142</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>6.066788187754923</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.006380451189049</v>
       </c>
       <c r="O7">
-        <v>15.94398525346432</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.21311981651289</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>11.75426262144346</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>15.97788035793604</v>
+      </c>
+      <c r="R7">
+        <v>12.22531002896581</v>
+      </c>
+      <c r="S7">
+        <v>11.69725097151398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.32211338729999</v>
+        <v>16.16249105169591</v>
       </c>
       <c r="C8">
-        <v>12.58647631214443</v>
+        <v>12.66617503244432</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>18.07122699598837</v>
+        <v>18.11049972016103</v>
       </c>
       <c r="F8">
-        <v>29.78062631731031</v>
+        <v>29.65319596210505</v>
       </c>
       <c r="G8">
-        <v>17.72796550421231</v>
+        <v>17.05871329324062</v>
       </c>
       <c r="H8">
-        <v>1.612529292274031</v>
+        <v>1.626498090745276</v>
       </c>
       <c r="I8">
-        <v>3.245888589007195</v>
+        <v>3.23590404716886</v>
       </c>
       <c r="J8">
-        <v>7.574915715487372</v>
+        <v>8.085915021978593</v>
       </c>
       <c r="K8">
-        <v>11.2047192904929</v>
+        <v>11.0826481097125</v>
       </c>
       <c r="L8">
-        <v>5.08110599782036</v>
+        <v>10.43932961524772</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5.963694848520327</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.085465507137418</v>
       </c>
       <c r="O8">
-        <v>17.1817195583656</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.16670691570812</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>11.8833385538167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>17.22548636883278</v>
+      </c>
+      <c r="R8">
+        <v>12.20625536740454</v>
+      </c>
+      <c r="S8">
+        <v>11.77500250315118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.71447089964025</v>
+        <v>18.45321080692877</v>
       </c>
       <c r="C9">
-        <v>14.00872427316247</v>
+        <v>14.25982253080204</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>19.7300542103641</v>
+        <v>19.79270438413135</v>
       </c>
       <c r="F9">
-        <v>32.44051825193549</v>
+        <v>32.24199352330455</v>
       </c>
       <c r="G9">
-        <v>19.17961122900698</v>
+        <v>18.46738449059861</v>
       </c>
       <c r="H9">
-        <v>2.0363316149229</v>
+        <v>2.012118107182308</v>
       </c>
       <c r="I9">
-        <v>3.533409852355552</v>
+        <v>3.491185269083277</v>
       </c>
       <c r="J9">
-        <v>7.588437931792629</v>
+        <v>8.094707615510528</v>
       </c>
       <c r="K9">
-        <v>10.91888301120428</v>
+        <v>10.76395438943398</v>
       </c>
       <c r="L9">
-        <v>5.219999306947336</v>
+        <v>10.0422347982783</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5.965155389519373</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.228994193595567</v>
       </c>
       <c r="O9">
-        <v>19.37865475659001</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.09143476398497</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>12.20406401792133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>19.44058774550903</v>
+      </c>
+      <c r="R9">
+        <v>12.18182579310999</v>
+      </c>
+      <c r="S9">
+        <v>12.02121542456413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.27617639346191</v>
+        <v>19.92548247746264</v>
       </c>
       <c r="C10">
-        <v>14.979925826929</v>
+        <v>15.29985004362129</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.56678477973301</v>
+        <v>20.67650827813885</v>
       </c>
       <c r="F10">
-        <v>33.99979655445352</v>
+        <v>33.71826960014528</v>
       </c>
       <c r="G10">
-        <v>20.11599861311231</v>
+        <v>19.85859011145219</v>
       </c>
       <c r="H10">
-        <v>2.38353377898683</v>
+        <v>2.350828186872174</v>
       </c>
       <c r="I10">
-        <v>3.733062605113858</v>
+        <v>3.667429546739891</v>
       </c>
       <c r="J10">
-        <v>7.594057285433127</v>
+        <v>7.894835375780315</v>
       </c>
       <c r="K10">
-        <v>10.70084409885226</v>
+        <v>10.49665208938115</v>
       </c>
       <c r="L10">
-        <v>5.319997820779299</v>
+        <v>9.742831255908078</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.029756286774467</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.333770357007879</v>
       </c>
       <c r="O10">
-        <v>20.67879848709604</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.06804984639409</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>12.41475825218443</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>20.75024636579466</v>
+      </c>
+      <c r="R10">
+        <v>12.20655515912031</v>
+      </c>
+      <c r="S10">
+        <v>12.12281563760929</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.95624452583159</v>
+        <v>20.54596755910744</v>
       </c>
       <c r="C11">
-        <v>15.35897910316061</v>
+        <v>15.60385543851544</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.34034908285293</v>
+        <v>18.49176626374228</v>
       </c>
       <c r="F11">
-        <v>32.08890735028231</v>
+        <v>31.73507967191238</v>
       </c>
       <c r="G11">
-        <v>19.57496474007678</v>
+        <v>20.38102782131573</v>
       </c>
       <c r="H11">
-        <v>3.134441801550684</v>
+        <v>3.106571402325194</v>
       </c>
       <c r="I11">
-        <v>3.801743984012641</v>
+        <v>3.72650207553278</v>
       </c>
       <c r="J11">
-        <v>7.44286469228572</v>
+        <v>7.389023021105786</v>
       </c>
       <c r="K11">
-        <v>10.3755539701717</v>
+        <v>10.15068666361224</v>
       </c>
       <c r="L11">
-        <v>5.459461008263109</v>
+        <v>9.482230884780076</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.836160621391128</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.488765412297587</v>
       </c>
       <c r="O11">
-        <v>19.75472576608971</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.21004751279008</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>12.10641378310688</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.82232539494532</v>
+      </c>
+      <c r="R11">
+        <v>12.38856516531227</v>
+      </c>
+      <c r="S11">
+        <v>11.70538615780631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.23399724038581</v>
+        <v>20.80667306903396</v>
       </c>
       <c r="C12">
-        <v>15.44645095358921</v>
+        <v>15.637355641088</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>16.35505186814849</v>
+        <v>16.50135822304087</v>
       </c>
       <c r="F12">
-        <v>30.14510381605206</v>
+        <v>29.77085136643958</v>
       </c>
       <c r="G12">
-        <v>18.95502865369361</v>
+        <v>20.27659715618321</v>
       </c>
       <c r="H12">
-        <v>4.30820658155504</v>
+        <v>4.287768149723388</v>
       </c>
       <c r="I12">
-        <v>3.816880802886191</v>
+        <v>3.737932914239577</v>
       </c>
       <c r="J12">
-        <v>7.318003388545538</v>
+        <v>7.146847133772276</v>
       </c>
       <c r="K12">
-        <v>10.16397101108918</v>
+        <v>9.948068775880007</v>
       </c>
       <c r="L12">
-        <v>5.623095904729087</v>
+        <v>9.350606551218599</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>5.678808681791907</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.665078903390663</v>
       </c>
       <c r="O12">
-        <v>18.6861829046735</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.33615737318845</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>11.81326024597538</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.74953797813719</v>
+      </c>
+      <c r="R12">
+        <v>12.53228971933049</v>
+      </c>
+      <c r="S12">
+        <v>11.37760602983131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.20952425243082</v>
+        <v>20.80717445472385</v>
       </c>
       <c r="C13">
-        <v>15.35031015074744</v>
+        <v>15.51735896783986</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.44864356263064</v>
+        <v>14.5426925321118</v>
       </c>
       <c r="F13">
-        <v>28.00317934105376</v>
+        <v>27.66167834515213</v>
       </c>
       <c r="G13">
-        <v>18.16938195804448</v>
+        <v>19.40765550791825</v>
       </c>
       <c r="H13">
-        <v>5.58321217495747</v>
+        <v>5.56860653449204</v>
       </c>
       <c r="I13">
-        <v>3.794591465336295</v>
+        <v>3.718382861833843</v>
       </c>
       <c r="J13">
-        <v>7.196850879032733</v>
+        <v>7.108636476346854</v>
       </c>
       <c r="K13">
-        <v>10.00922086977902</v>
+        <v>9.832646895849301</v>
       </c>
       <c r="L13">
-        <v>5.807890242834142</v>
+        <v>9.291382428416066</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.534481668354504</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.856673071902684</v>
       </c>
       <c r="O13">
-        <v>17.41671476129234</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.45948141135905</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.48883901687635</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>17.4757382932346</v>
+      </c>
+      <c r="R13">
+        <v>12.65049495000554</v>
+      </c>
+      <c r="S13">
+        <v>11.09665554310436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.05178408780321</v>
+        <v>20.68588063288896</v>
       </c>
       <c r="C14">
-        <v>15.20542808095107</v>
+        <v>15.36856725588629</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.19474303744673</v>
+        <v>13.23370884112192</v>
       </c>
       <c r="F14">
-        <v>26.39804765136629</v>
+        <v>26.10270670507032</v>
       </c>
       <c r="G14">
-        <v>17.5273854750304</v>
+        <v>18.44295352605343</v>
       </c>
       <c r="H14">
-        <v>6.509932243067021</v>
+        <v>6.498525274062042</v>
       </c>
       <c r="I14">
-        <v>3.762869842843681</v>
+        <v>3.691773658200483</v>
       </c>
       <c r="J14">
-        <v>7.112498473749095</v>
+        <v>7.161389328804655</v>
       </c>
       <c r="K14">
-        <v>9.925331121300337</v>
+        <v>9.787416443971251</v>
       </c>
       <c r="L14">
-        <v>5.95152625941596</v>
+        <v>9.277228765388456</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.439127167253202</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.000899054936068</v>
       </c>
       <c r="O14">
-        <v>16.42166016611247</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.54544991740273</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>11.24317650667753</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>16.47744343283954</v>
+      </c>
+      <c r="R14">
+        <v>12.72215130629793</v>
+      </c>
+      <c r="S14">
+        <v>10.91481728222002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.94293419746797</v>
+        <v>20.59424974321588</v>
       </c>
       <c r="C15">
-        <v>15.13899085823835</v>
+        <v>15.30649643058234</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.89979142960305</v>
+        <v>12.92018284047656</v>
       </c>
       <c r="F15">
-        <v>25.96121679247226</v>
+        <v>25.68685734663867</v>
       </c>
       <c r="G15">
-        <v>17.32362367355323</v>
+        <v>18.04726682957655</v>
       </c>
       <c r="H15">
-        <v>6.721139780556385</v>
+        <v>6.710584431564446</v>
       </c>
       <c r="I15">
-        <v>3.747900306271349</v>
+        <v>3.679860688715427</v>
       </c>
       <c r="J15">
-        <v>7.091497235111522</v>
+        <v>7.208990412594124</v>
       </c>
       <c r="K15">
-        <v>9.913746677656825</v>
+        <v>9.790106133749022</v>
       </c>
       <c r="L15">
-        <v>5.982696950907016</v>
+        <v>9.284654383850796</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.41615097085791</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.030632564212445</v>
       </c>
       <c r="O15">
-        <v>16.13574691561543</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.5663284862745</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>11.17286060319054</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>16.19063914902068</v>
+      </c>
+      <c r="R15">
+        <v>12.73498300182917</v>
+      </c>
+      <c r="S15">
+        <v>10.87425532896957</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.30367545065694</v>
+        <v>20.02678584307475</v>
       </c>
       <c r="C16">
-        <v>14.76697014624147</v>
+        <v>14.97304083400884</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.85971656735536</v>
+        <v>12.84109613213682</v>
       </c>
       <c r="F16">
-        <v>25.63246376919622</v>
+        <v>25.43941383780187</v>
       </c>
       <c r="G16">
-        <v>17.01649707953879</v>
+        <v>16.81114668019405</v>
       </c>
       <c r="H16">
-        <v>6.451380261817498</v>
+        <v>6.442646280276726</v>
       </c>
       <c r="I16">
-        <v>3.669059036870032</v>
+        <v>3.614206658094353</v>
       </c>
       <c r="J16">
-        <v>7.108779779190185</v>
+        <v>7.533075661914049</v>
       </c>
       <c r="K16">
-        <v>10.03335431436254</v>
+        <v>9.947617877551748</v>
       </c>
       <c r="L16">
-        <v>5.899901062038823</v>
+        <v>9.408012010836726</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.449657467387953</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.936178669992448</v>
       </c>
       <c r="O16">
-        <v>15.76689263306367</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.54281842211962</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>11.13081881073147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>15.82061117592593</v>
+      </c>
+      <c r="R16">
+        <v>12.67253721354749</v>
+      </c>
+      <c r="S16">
+        <v>10.94950233507298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.88908416280534</v>
+        <v>19.64110975000553</v>
       </c>
       <c r="C17">
-        <v>14.55761477995531</v>
+        <v>14.78464143834896</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.48175040501936</v>
+        <v>13.46169166515955</v>
       </c>
       <c r="F17">
-        <v>26.25605039297477</v>
+        <v>26.09231005787904</v>
       </c>
       <c r="G17">
-        <v>17.13478216053063</v>
+        <v>16.52113978138491</v>
       </c>
       <c r="H17">
-        <v>5.702324882422438</v>
+        <v>5.69360950221349</v>
       </c>
       <c r="I17">
-        <v>3.625369926235679</v>
+        <v>3.577479268241143</v>
       </c>
       <c r="J17">
-        <v>7.167323159668901</v>
+        <v>7.725293283906363</v>
       </c>
       <c r="K17">
-        <v>10.1684990388347</v>
+        <v>10.08897799089575</v>
       </c>
       <c r="L17">
-        <v>5.754398603352522</v>
+        <v>9.514953115794315</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.519306713309109</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.784087799800567</v>
       </c>
       <c r="O17">
-        <v>16.03445029434708</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.48076610352222</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.23163448201894</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>16.08872777111327</v>
+      </c>
+      <c r="R17">
+        <v>12.59253217029368</v>
+      </c>
+      <c r="S17">
+        <v>11.09319340251874</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.64201158980516</v>
+        <v>19.39782279216658</v>
       </c>
       <c r="C18">
-        <v>14.44998825589665</v>
+        <v>14.69988733939148</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>14.85924357508913</v>
+        <v>14.85614885029598</v>
       </c>
       <c r="F18">
-        <v>27.78389544948914</v>
+        <v>27.62152903840294</v>
       </c>
       <c r="G18">
-        <v>17.65383563695257</v>
+        <v>16.85258296162864</v>
       </c>
       <c r="H18">
-        <v>4.493929611337617</v>
+        <v>4.48320375323099</v>
       </c>
       <c r="I18">
-        <v>3.60549233108045</v>
+        <v>3.559445246199135</v>
       </c>
       <c r="J18">
-        <v>7.270323537657744</v>
+        <v>7.876344080273383</v>
       </c>
       <c r="K18">
-        <v>10.34094449684813</v>
+        <v>10.24862872739243</v>
       </c>
       <c r="L18">
-        <v>5.564157677178163</v>
+        <v>9.630018257812385</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.636491031869424</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.589000409283722</v>
       </c>
       <c r="O18">
-        <v>16.88081947191202</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.37700529719951</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.47358346053207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.93780724077243</v>
+      </c>
+      <c r="R18">
+        <v>12.4815964771475</v>
+      </c>
+      <c r="S18">
+        <v>11.33976663817091</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.52809986957705</v>
+        <v>19.27111993670333</v>
       </c>
       <c r="C19">
-        <v>14.47605266274669</v>
+        <v>14.75585350871597</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>16.87007845649797</v>
+        <v>16.89226016440828</v>
       </c>
       <c r="F19">
-        <v>29.90138091546969</v>
+        <v>29.72359456456919</v>
       </c>
       <c r="G19">
-        <v>18.3850139180456</v>
+        <v>17.50843317367609</v>
       </c>
       <c r="H19">
-        <v>3.161502480370092</v>
+        <v>3.145298803830501</v>
       </c>
       <c r="I19">
-        <v>3.61328344535644</v>
+        <v>3.56719165293093</v>
       </c>
       <c r="J19">
-        <v>7.390847695725918</v>
+        <v>7.998375678723963</v>
       </c>
       <c r="K19">
-        <v>10.51362645411696</v>
+        <v>10.39797518582518</v>
       </c>
       <c r="L19">
-        <v>5.396343489161047</v>
+        <v>9.733531685024941</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.768213504497951</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.41638344613617</v>
       </c>
       <c r="O19">
-        <v>18.12252911264656</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.25962059362911</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>11.78293258740284</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>18.18392247402848</v>
+      </c>
+      <c r="R19">
+        <v>12.36395369585312</v>
+      </c>
+      <c r="S19">
+        <v>11.63153906816583</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.83972996659118</v>
+        <v>19.52733584297106</v>
       </c>
       <c r="C20">
-        <v>14.7975668617213</v>
+        <v>15.12665339262308</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>20.3550132388978</v>
+        <v>20.43277394786386</v>
       </c>
       <c r="F20">
-        <v>33.54870581086946</v>
+        <v>33.31081661327377</v>
       </c>
       <c r="G20">
-        <v>19.7667684309818</v>
+        <v>19.09241079865886</v>
       </c>
       <c r="H20">
-        <v>2.290923219931014</v>
+        <v>2.261240578446686</v>
       </c>
       <c r="I20">
-        <v>3.68765406420096</v>
+        <v>3.632473491404054</v>
       </c>
       <c r="J20">
-        <v>7.574118381072739</v>
+        <v>8.051057452532238</v>
       </c>
       <c r="K20">
-        <v>10.71798104755059</v>
+        <v>10.54399754787354</v>
       </c>
       <c r="L20">
-        <v>5.294203208266361</v>
+        <v>9.805305652197275</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5.984973050284244</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.306646858573962</v>
       </c>
       <c r="O20">
-        <v>20.34920637568971</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.0860088238162</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>12.31309963560526</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>20.41926383950814</v>
+      </c>
+      <c r="R20">
+        <v>12.2066572635103</v>
+      </c>
+      <c r="S20">
+        <v>12.08379049169402</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.98251720753784</v>
+        <v>20.52230203510296</v>
       </c>
       <c r="C21">
-        <v>15.51505737381776</v>
+        <v>15.77135456027284</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.44744334763319</v>
+        <v>21.66966911782755</v>
       </c>
       <c r="F21">
-        <v>35.18896573363784</v>
+        <v>34.77051665549685</v>
       </c>
       <c r="G21">
-        <v>20.67024201549107</v>
+        <v>21.8688846881623</v>
       </c>
       <c r="H21">
-        <v>2.577373502069833</v>
+        <v>2.537057669031409</v>
       </c>
       <c r="I21">
-        <v>3.841221513358768</v>
+        <v>3.760995366579477</v>
       </c>
       <c r="J21">
-        <v>7.613531723923765</v>
+        <v>7.352448816381993</v>
       </c>
       <c r="K21">
-        <v>10.60413538084185</v>
+        <v>10.30988813507822</v>
       </c>
       <c r="L21">
-        <v>5.361303886479826</v>
+        <v>9.568999426543067</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.027494101557077</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.376315720513968</v>
       </c>
       <c r="O21">
-        <v>21.56850943247393</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.04686119705984</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>12.56217633467073</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>21.64115700152494</v>
+      </c>
+      <c r="R21">
+        <v>12.236419229268</v>
+      </c>
+      <c r="S21">
+        <v>12.06958489321961</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.71130968943587</v>
+        <v>21.15456308347843</v>
       </c>
       <c r="C22">
-        <v>15.93875539964016</v>
+        <v>16.13820936367168</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.97959471510584</v>
+        <v>22.30105312716773</v>
       </c>
       <c r="F22">
-        <v>36.0991889144637</v>
+        <v>35.55905759206114</v>
       </c>
       <c r="G22">
-        <v>21.24050894287097</v>
+        <v>23.74156777155937</v>
       </c>
       <c r="H22">
-        <v>2.751774417046916</v>
+        <v>2.704757901378561</v>
       </c>
       <c r="I22">
-        <v>3.935885841188225</v>
+        <v>3.838628612391522</v>
       </c>
       <c r="J22">
-        <v>7.640622089073632</v>
+        <v>6.935084393011873</v>
       </c>
       <c r="K22">
-        <v>10.53799598724896</v>
+        <v>10.15634377576406</v>
       </c>
       <c r="L22">
-        <v>5.406488689612906</v>
+        <v>9.421412265091488</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.06676833382955</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.42381078009918</v>
       </c>
       <c r="O22">
-        <v>22.2444149444835</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.02678477581485</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>12.72416767381803</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>22.31780396890035</v>
+      </c>
+      <c r="R22">
+        <v>12.26517928353117</v>
+      </c>
+      <c r="S22">
+        <v>12.04638406904247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.33957570144122</v>
+        <v>20.84473001858215</v>
       </c>
       <c r="C23">
-        <v>15.68954174873536</v>
+        <v>15.93621398640374</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.6903358245647</v>
+        <v>21.94424584713016</v>
       </c>
       <c r="F23">
-        <v>35.62717157083664</v>
+        <v>35.1675301625756</v>
       </c>
       <c r="G23">
-        <v>20.97222398713004</v>
+        <v>22.56857981342453</v>
       </c>
       <c r="H23">
-        <v>2.659342136067683</v>
+        <v>2.616333007047041</v>
       </c>
       <c r="I23">
-        <v>3.882908354481161</v>
+        <v>3.794285723246612</v>
       </c>
       <c r="J23">
-        <v>7.632123954047076</v>
+        <v>7.219672427810743</v>
       </c>
       <c r="K23">
-        <v>10.58715538050411</v>
+        <v>10.26123849333631</v>
       </c>
       <c r="L23">
-        <v>5.382524161688177</v>
+        <v>9.512140755385634</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.069254988277742</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.398450861647369</v>
       </c>
       <c r="O23">
-        <v>21.88210422888972</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.03244141743508</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>12.65299521226122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>21.95580745297085</v>
+      </c>
+      <c r="R23">
+        <v>12.23977598225058</v>
+      </c>
+      <c r="S23">
+        <v>12.09799137995378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.84060205422569</v>
+        <v>19.52795393217477</v>
       </c>
       <c r="C24">
-        <v>14.75367670909659</v>
+        <v>15.0851227128043</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>20.57398824297358</v>
+        <v>20.65262869851609</v>
       </c>
       <c r="F24">
-        <v>33.78156739039167</v>
+        <v>33.54338732836219</v>
       </c>
       <c r="G24">
-        <v>19.89430466027224</v>
+        <v>19.20145011065177</v>
       </c>
       <c r="H24">
-        <v>2.301095660832635</v>
+        <v>2.271344492666034</v>
       </c>
       <c r="I24">
-        <v>3.682941793053754</v>
+        <v>3.625924437989144</v>
       </c>
       <c r="J24">
-        <v>7.596634234451044</v>
+        <v>8.077487831032155</v>
       </c>
       <c r="K24">
-        <v>10.76098629646311</v>
+        <v>10.58342972986938</v>
       </c>
       <c r="L24">
-        <v>5.289317796145752</v>
+        <v>9.832235797021548</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.01959903145881</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.300839826150653</v>
       </c>
       <c r="O24">
-        <v>20.46202346137023</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.06735678663978</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>12.36923334840388</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>20.532452446199</v>
+      </c>
+      <c r="R24">
+        <v>12.1868960942163</v>
+      </c>
+      <c r="S24">
+        <v>12.13934151770018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.07652384977063</v>
+        <v>17.84804306782825</v>
       </c>
       <c r="C25">
-        <v>13.67867015626741</v>
+        <v>13.89744062831247</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>19.3054142819057</v>
+        <v>19.35337095261067</v>
       </c>
       <c r="F25">
-        <v>31.71520081438695</v>
+        <v>31.54488446783472</v>
       </c>
       <c r="G25">
-        <v>18.7271826700854</v>
+        <v>17.8996145741542</v>
       </c>
       <c r="H25">
-        <v>1.897513156695049</v>
+        <v>1.876472802613706</v>
       </c>
       <c r="I25">
-        <v>3.460438041422793</v>
+        <v>3.428847712382974</v>
       </c>
       <c r="J25">
-        <v>7.572431798712417</v>
+        <v>8.131878888931562</v>
       </c>
       <c r="K25">
-        <v>10.97076429990265</v>
+        <v>10.83272469872397</v>
       </c>
       <c r="L25">
-        <v>5.183533541409571</v>
+        <v>10.13488574892706</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5.932030786133638</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.191301060718622</v>
       </c>
       <c r="O25">
-        <v>18.8160034498792</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.11608758964579</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>12.08745811356631</v>
+        <v>18.87373627858115</v>
+      </c>
+      <c r="R25">
+        <v>12.19069944536465</v>
+      </c>
+      <c r="S25">
+        <v>11.93932646588705</v>
       </c>
     </row>
   </sheetData>
